--- a/data/interim/countries.xlsx
+++ b/data/interim/countries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/themoon/Documents/Work/ADB/mrio-processing/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75276979-A0D7-AB4A-AD17-E8495FBBB674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0590B8F5-1A65-C842-9054-9EA178A2BE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="500" windowWidth="27640" windowHeight="16300" xr2:uid="{D9E98D74-C369-4244-B24B-2BDA87339BA7}"/>
+    <workbookView xWindow="5960" yWindow="500" windowWidth="27640" windowHeight="16300" activeTab="3" xr2:uid="{D9E98D74-C369-4244-B24B-2BDA87339BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="1052">
   <si>
     <t>American Samoa</t>
   </si>
@@ -3196,6 +3196,12 @@
   </si>
   <si>
     <t>UAE</t>
+  </si>
+  <si>
+    <t>KUW</t>
+  </si>
+  <si>
+    <t>ROM</t>
   </si>
 </sst>
 </file>
@@ -3246,7 +3252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3261,8 +3267,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3582,11 +3586,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B45EE7-D823-5A4C-ACCA-52260AECB980}">
   <dimension ref="A1:S242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3692,7 +3696,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I2" s="3" t="str">
-        <f>IF(D2="",C2,D2)</f>
+        <f t="shared" ref="I2:I65" si="0">IF(D2="",C2,D2)</f>
         <v>AUS</v>
       </c>
       <c r="J2" s="3">
@@ -3700,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="str">
-        <f>IF(F2="",E2,F2)</f>
+        <f t="shared" ref="K2:K65" si="1">IF(F2="",E2,F2)</f>
         <v>Australia</v>
       </c>
       <c r="L2" t="s">
@@ -3768,7 +3772,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I3" s="3" t="str">
-        <f>IF(D3="",C3,D3)</f>
+        <f t="shared" si="0"/>
         <v>AUT</v>
       </c>
       <c r="J3" s="3">
@@ -3776,7 +3780,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="str">
-        <f>IF(F3="",E3,F3)</f>
+        <f t="shared" si="1"/>
         <v>Austria</v>
       </c>
       <c r="L3" t="s">
@@ -3844,7 +3848,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I4" s="3" t="str">
-        <f>IF(D4="",C4,D4)</f>
+        <f t="shared" si="0"/>
         <v>BEL</v>
       </c>
       <c r="J4" s="3">
@@ -3852,7 +3856,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="str">
-        <f>IF(F4="",E4,F4)</f>
+        <f t="shared" si="1"/>
         <v>Belgium</v>
       </c>
       <c r="L4" t="s">
@@ -3920,7 +3924,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I5" s="3" t="str">
-        <f>IF(D5="",C5,D5)</f>
+        <f t="shared" si="0"/>
         <v>BGR</v>
       </c>
       <c r="J5" s="3">
@@ -3928,7 +3932,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="str">
-        <f>IF(F5="",E5,F5)</f>
+        <f t="shared" si="1"/>
         <v>Bulgaria</v>
       </c>
       <c r="L5" t="s">
@@ -3996,7 +4000,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I6" s="3" t="str">
-        <f>IF(D6="",C6,D6)</f>
+        <f t="shared" si="0"/>
         <v>BRA</v>
       </c>
       <c r="J6" s="3">
@@ -4004,7 +4008,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="str">
-        <f>IF(F6="",E6,F6)</f>
+        <f t="shared" si="1"/>
         <v>Brazil</v>
       </c>
       <c r="L6" t="s">
@@ -4072,7 +4076,7 @@
         <v>North America</v>
       </c>
       <c r="I7" s="3" t="str">
-        <f>IF(D7="",C7,D7)</f>
+        <f t="shared" si="0"/>
         <v>CAN</v>
       </c>
       <c r="J7" s="3">
@@ -4080,7 +4084,7 @@
         <v>6</v>
       </c>
       <c r="K7" t="str">
-        <f>IF(F7="",E7,F7)</f>
+        <f t="shared" si="1"/>
         <v>Canada</v>
       </c>
       <c r="L7" t="s">
@@ -4148,7 +4152,7 @@
         <v/>
       </c>
       <c r="I8" s="3" t="str">
-        <f>IF(D8="",C8,D8)</f>
+        <f t="shared" si="0"/>
         <v>SWI</v>
       </c>
       <c r="J8" s="3">
@@ -4156,7 +4160,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="str">
-        <f>IF(F8="",E8,F8)</f>
+        <f t="shared" si="1"/>
         <v>Switzerland</v>
       </c>
       <c r="L8" t="s">
@@ -4224,7 +4228,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I9" s="3" t="str">
-        <f>IF(D9="",C9,D9)</f>
+        <f t="shared" si="0"/>
         <v>PRC</v>
       </c>
       <c r="J9" s="3">
@@ -4232,7 +4236,7 @@
         <v>8</v>
       </c>
       <c r="K9" t="str">
-        <f>IF(F9="",E9,F9)</f>
+        <f t="shared" si="1"/>
         <v>People's Republic of China</v>
       </c>
       <c r="L9" t="s">
@@ -4300,7 +4304,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I10" s="3" t="str">
-        <f>IF(D10="",C10,D10)</f>
+        <f t="shared" si="0"/>
         <v>CYP</v>
       </c>
       <c r="J10" s="3">
@@ -4308,7 +4312,7 @@
         <v>9</v>
       </c>
       <c r="K10" t="str">
-        <f>IF(F10="",E10,F10)</f>
+        <f t="shared" si="1"/>
         <v>Cyprus</v>
       </c>
       <c r="L10" t="s">
@@ -4376,7 +4380,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f>IF(D11="",C11,D11)</f>
+        <f t="shared" si="0"/>
         <v>CZE</v>
       </c>
       <c r="J11" s="3">
@@ -4384,7 +4388,7 @@
         <v>10</v>
       </c>
       <c r="K11" t="str">
-        <f>IF(F11="",E11,F11)</f>
+        <f t="shared" si="1"/>
         <v>Czech Republic</v>
       </c>
       <c r="L11" t="s">
@@ -4452,7 +4456,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f>IF(D12="",C12,D12)</f>
+        <f t="shared" si="0"/>
         <v>GER</v>
       </c>
       <c r="J12" s="3">
@@ -4460,7 +4464,7 @@
         <v>11</v>
       </c>
       <c r="K12" t="str">
-        <f>IF(F12="",E12,F12)</f>
+        <f t="shared" si="1"/>
         <v>Germany</v>
       </c>
       <c r="L12" t="s">
@@ -4528,7 +4532,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I13" s="3" t="str">
-        <f>IF(D13="",C13,D13)</f>
+        <f t="shared" si="0"/>
         <v>DEN</v>
       </c>
       <c r="J13" s="3">
@@ -4536,7 +4540,7 @@
         <v>12</v>
       </c>
       <c r="K13" t="str">
-        <f>IF(F13="",E13,F13)</f>
+        <f t="shared" si="1"/>
         <v>Denmark</v>
       </c>
       <c r="L13" t="s">
@@ -4604,7 +4608,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I14" s="3" t="str">
-        <f>IF(D14="",C14,D14)</f>
+        <f t="shared" si="0"/>
         <v>SPA</v>
       </c>
       <c r="J14" s="3">
@@ -4612,7 +4616,7 @@
         <v>13</v>
       </c>
       <c r="K14" t="str">
-        <f>IF(F14="",E14,F14)</f>
+        <f t="shared" si="1"/>
         <v>Spain</v>
       </c>
       <c r="L14" t="s">
@@ -4680,7 +4684,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I15" s="3" t="str">
-        <f>IF(D15="",C15,D15)</f>
+        <f t="shared" si="0"/>
         <v>EST</v>
       </c>
       <c r="J15" s="3">
@@ -4688,7 +4692,7 @@
         <v>14</v>
       </c>
       <c r="K15" t="str">
-        <f>IF(F15="",E15,F15)</f>
+        <f t="shared" si="1"/>
         <v>Estonia</v>
       </c>
       <c r="L15" t="s">
@@ -4756,7 +4760,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I16" s="3" t="str">
-        <f>IF(D16="",C16,D16)</f>
+        <f t="shared" si="0"/>
         <v>FIN</v>
       </c>
       <c r="J16" s="3">
@@ -4764,7 +4768,7 @@
         <v>15</v>
       </c>
       <c r="K16" t="str">
-        <f>IF(F16="",E16,F16)</f>
+        <f t="shared" si="1"/>
         <v>Finland</v>
       </c>
       <c r="L16" t="s">
@@ -4832,7 +4836,7 @@
         <v/>
       </c>
       <c r="I17" s="3" t="str">
-        <f>IF(D17="",C17,D17)</f>
+        <f t="shared" si="0"/>
         <v>FRA</v>
       </c>
       <c r="J17" s="3">
@@ -4840,7 +4844,7 @@
         <v>16</v>
       </c>
       <c r="K17" t="str">
-        <f>IF(F17="",E17,F17)</f>
+        <f t="shared" si="1"/>
         <v>France</v>
       </c>
       <c r="L17" t="s">
@@ -4908,7 +4912,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I18" s="3" t="str">
-        <f>IF(D18="",C18,D18)</f>
+        <f t="shared" si="0"/>
         <v>UKG</v>
       </c>
       <c r="J18" s="3">
@@ -4916,7 +4920,7 @@
         <v>17</v>
       </c>
       <c r="K18" t="str">
-        <f>IF(F18="",E18,F18)</f>
+        <f t="shared" si="1"/>
         <v>United Kingdom</v>
       </c>
       <c r="L18" t="s">
@@ -4984,7 +4988,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I19" s="3" t="str">
-        <f>IF(D19="",C19,D19)</f>
+        <f t="shared" si="0"/>
         <v>GRC</v>
       </c>
       <c r="J19" s="3">
@@ -4992,7 +4996,7 @@
         <v>18</v>
       </c>
       <c r="K19" t="str">
-        <f>IF(F19="",E19,F19)</f>
+        <f t="shared" si="1"/>
         <v>Greece</v>
       </c>
       <c r="L19" t="s">
@@ -5060,7 +5064,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I20" s="3" t="str">
-        <f>IF(D20="",C20,D20)</f>
+        <f t="shared" si="0"/>
         <v>HRV</v>
       </c>
       <c r="J20" s="3">
@@ -5068,7 +5072,7 @@
         <v>19</v>
       </c>
       <c r="K20" t="str">
-        <f>IF(F20="",E20,F20)</f>
+        <f t="shared" si="1"/>
         <v>Croatia</v>
       </c>
       <c r="L20" t="s">
@@ -5136,7 +5140,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I21" s="3" t="str">
-        <f>IF(D21="",C21,D21)</f>
+        <f t="shared" si="0"/>
         <v>HUN</v>
       </c>
       <c r="J21" s="3">
@@ -5144,7 +5148,7 @@
         <v>20</v>
       </c>
       <c r="K21" t="str">
-        <f>IF(F21="",E21,F21)</f>
+        <f t="shared" si="1"/>
         <v>Hungary</v>
       </c>
       <c r="L21" t="s">
@@ -5212,7 +5216,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f>IF(D22="",C22,D22)</f>
+        <f t="shared" si="0"/>
         <v>INO</v>
       </c>
       <c r="J22" s="3">
@@ -5220,7 +5224,7 @@
         <v>21</v>
       </c>
       <c r="K22" t="str">
-        <f>IF(F22="",E22,F22)</f>
+        <f t="shared" si="1"/>
         <v>Indonesia</v>
       </c>
       <c r="L22" t="s">
@@ -5288,7 +5292,7 @@
         <v>South Asia</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f>IF(D23="",C23,D23)</f>
+        <f t="shared" si="0"/>
         <v>IND</v>
       </c>
       <c r="J23" s="3">
@@ -5296,7 +5300,7 @@
         <v>22</v>
       </c>
       <c r="K23" t="str">
-        <f>IF(F23="",E23,F23)</f>
+        <f t="shared" si="1"/>
         <v>India</v>
       </c>
       <c r="L23" t="s">
@@ -5364,7 +5368,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I24" s="3" t="str">
-        <f>IF(D24="",C24,D24)</f>
+        <f t="shared" si="0"/>
         <v>IRE</v>
       </c>
       <c r="J24" s="3">
@@ -5372,7 +5376,7 @@
         <v>23</v>
       </c>
       <c r="K24" t="str">
-        <f>IF(F24="",E24,F24)</f>
+        <f t="shared" si="1"/>
         <v>Ireland</v>
       </c>
       <c r="L24" t="s">
@@ -5440,7 +5444,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I25" s="3" t="str">
-        <f>IF(D25="",C25,D25)</f>
+        <f t="shared" si="0"/>
         <v>ITA</v>
       </c>
       <c r="J25" s="3">
@@ -5448,7 +5452,7 @@
         <v>24</v>
       </c>
       <c r="K25" t="str">
-        <f>IF(F25="",E25,F25)</f>
+        <f t="shared" si="1"/>
         <v>Italy</v>
       </c>
       <c r="L25" t="s">
@@ -5516,7 +5520,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I26" s="3" t="str">
-        <f>IF(D26="",C26,D26)</f>
+        <f t="shared" si="0"/>
         <v>JPN</v>
       </c>
       <c r="J26" s="3">
@@ -5524,7 +5528,7 @@
         <v>25</v>
       </c>
       <c r="K26" t="str">
-        <f>IF(F26="",E26,F26)</f>
+        <f t="shared" si="1"/>
         <v>Japan</v>
       </c>
       <c r="L26" t="s">
@@ -5592,7 +5596,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I27" s="3" t="str">
-        <f>IF(D27="",C27,D27)</f>
+        <f t="shared" si="0"/>
         <v>KOR</v>
       </c>
       <c r="J27" s="3">
@@ -5600,7 +5604,7 @@
         <v>26</v>
       </c>
       <c r="K27" t="str">
-        <f>IF(F27="",E27,F27)</f>
+        <f t="shared" si="1"/>
         <v>Republic of Korea</v>
       </c>
       <c r="L27" t="s">
@@ -5668,7 +5672,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I28" s="3" t="str">
-        <f>IF(D28="",C28,D28)</f>
+        <f t="shared" si="0"/>
         <v>LTU</v>
       </c>
       <c r="J28" s="3">
@@ -5676,7 +5680,7 @@
         <v>27</v>
       </c>
       <c r="K28" t="str">
-        <f>IF(F28="",E28,F28)</f>
+        <f t="shared" si="1"/>
         <v>Lithuania</v>
       </c>
       <c r="L28" t="s">
@@ -5744,7 +5748,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I29" s="3" t="str">
-        <f>IF(D29="",C29,D29)</f>
+        <f t="shared" si="0"/>
         <v>LUX</v>
       </c>
       <c r="J29" s="3">
@@ -5752,7 +5756,7 @@
         <v>28</v>
       </c>
       <c r="K29" t="str">
-        <f>IF(F29="",E29,F29)</f>
+        <f t="shared" si="1"/>
         <v>Luxembourg</v>
       </c>
       <c r="L29" t="s">
@@ -5820,7 +5824,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I30" s="3" t="str">
-        <f>IF(D30="",C30,D30)</f>
+        <f t="shared" si="0"/>
         <v>LVA</v>
       </c>
       <c r="J30" s="3">
@@ -5828,7 +5832,7 @@
         <v>29</v>
       </c>
       <c r="K30" t="str">
-        <f>IF(F30="",E30,F30)</f>
+        <f t="shared" si="1"/>
         <v>Latvia</v>
       </c>
       <c r="L30" t="s">
@@ -5896,7 +5900,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I31" s="3" t="str">
-        <f>IF(D31="",C31,D31)</f>
+        <f t="shared" si="0"/>
         <v>MEX</v>
       </c>
       <c r="J31" s="3">
@@ -5904,7 +5908,7 @@
         <v>30</v>
       </c>
       <c r="K31" t="str">
-        <f>IF(F31="",E31,F31)</f>
+        <f t="shared" si="1"/>
         <v>Mexico</v>
       </c>
       <c r="L31" t="s">
@@ -5972,7 +5976,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I32" s="3" t="str">
-        <f>IF(D32="",C32,D32)</f>
+        <f t="shared" si="0"/>
         <v>MLT</v>
       </c>
       <c r="J32" s="3">
@@ -5980,7 +5984,7 @@
         <v>31</v>
       </c>
       <c r="K32" t="str">
-        <f>IF(F32="",E32,F32)</f>
+        <f t="shared" si="1"/>
         <v>Malta</v>
       </c>
       <c r="L32" t="s">
@@ -6048,7 +6052,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I33" s="3" t="str">
-        <f>IF(D33="",C33,D33)</f>
+        <f t="shared" si="0"/>
         <v>NET</v>
       </c>
       <c r="J33" s="3">
@@ -6056,7 +6060,7 @@
         <v>32</v>
       </c>
       <c r="K33" t="str">
-        <f>IF(F33="",E33,F33)</f>
+        <f t="shared" si="1"/>
         <v>Netherlands</v>
       </c>
       <c r="L33" t="s">
@@ -6124,7 +6128,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I34" s="3" t="str">
-        <f>IF(D34="",C34,D34)</f>
+        <f t="shared" si="0"/>
         <v>NOR</v>
       </c>
       <c r="J34" s="3">
@@ -6132,7 +6136,7 @@
         <v>33</v>
       </c>
       <c r="K34" t="str">
-        <f>IF(F34="",E34,F34)</f>
+        <f t="shared" si="1"/>
         <v>Norway</v>
       </c>
       <c r="L34" t="s">
@@ -6200,7 +6204,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I35" s="3" t="str">
-        <f>IF(D35="",C35,D35)</f>
+        <f t="shared" si="0"/>
         <v>POL</v>
       </c>
       <c r="J35" s="3">
@@ -6208,7 +6212,7 @@
         <v>34</v>
       </c>
       <c r="K35" t="str">
-        <f>IF(F35="",E35,F35)</f>
+        <f t="shared" si="1"/>
         <v>Poland</v>
       </c>
       <c r="L35" t="s">
@@ -6276,7 +6280,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I36" s="3" t="str">
-        <f>IF(D36="",C36,D36)</f>
+        <f t="shared" si="0"/>
         <v>POR</v>
       </c>
       <c r="J36" s="3">
@@ -6284,7 +6288,7 @@
         <v>35</v>
       </c>
       <c r="K36" t="str">
-        <f>IF(F36="",E36,F36)</f>
+        <f t="shared" si="1"/>
         <v>Portugal</v>
       </c>
       <c r="L36" t="s">
@@ -6351,16 +6355,15 @@
         <f>IFERROR(VLOOKUP($A37,'World Bank'!$A:$D,4,FALSE),"")</f>
         <v>Europe and Central Asia</v>
       </c>
-      <c r="I37" s="8" t="str">
-        <f>IF(D37="",C37,D37)</f>
-        <v>ROU</v>
+      <c r="I37" s="6" t="s">
+        <v>1051</v>
       </c>
       <c r="J37" s="3">
         <f>IFERROR(IF(VLOOKUP(A37,ADB!A:H,6,FALSE)="","",VLOOKUP(A37,ADB!A:H,6,FALSE)),"")</f>
         <v>36</v>
       </c>
       <c r="K37" t="str">
-        <f>IF(F37="",E37,F37)</f>
+        <f t="shared" si="1"/>
         <v>Romania</v>
       </c>
       <c r="L37" t="s">
@@ -6428,7 +6431,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I38" s="3" t="str">
-        <f>IF(D38="",C38,D38)</f>
+        <f t="shared" si="0"/>
         <v>RUS</v>
       </c>
       <c r="J38" s="3">
@@ -6436,7 +6439,7 @@
         <v>37</v>
       </c>
       <c r="K38" t="str">
-        <f>IF(F38="",E38,F38)</f>
+        <f t="shared" si="1"/>
         <v>Russian Federation</v>
       </c>
       <c r="L38" t="s">
@@ -6504,7 +6507,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I39" s="3" t="str">
-        <f>IF(D39="",C39,D39)</f>
+        <f t="shared" si="0"/>
         <v>SVK</v>
       </c>
       <c r="J39" s="3">
@@ -6512,7 +6515,7 @@
         <v>38</v>
       </c>
       <c r="K39" t="str">
-        <f>IF(F39="",E39,F39)</f>
+        <f t="shared" si="1"/>
         <v>Slovak Republic</v>
       </c>
       <c r="L39" t="s">
@@ -6580,7 +6583,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I40" s="3" t="str">
-        <f>IF(D40="",C40,D40)</f>
+        <f t="shared" si="0"/>
         <v>SVN</v>
       </c>
       <c r="J40" s="3">
@@ -6588,7 +6591,7 @@
         <v>39</v>
       </c>
       <c r="K40" t="str">
-        <f>IF(F40="",E40,F40)</f>
+        <f t="shared" si="1"/>
         <v>Slovenia</v>
       </c>
       <c r="L40" t="s">
@@ -6656,7 +6659,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I41" s="3" t="str">
-        <f>IF(D41="",C41,D41)</f>
+        <f t="shared" si="0"/>
         <v>SWE</v>
       </c>
       <c r="J41" s="3">
@@ -6664,7 +6667,7 @@
         <v>40</v>
       </c>
       <c r="K41" t="str">
-        <f>IF(F41="",E41,F41)</f>
+        <f t="shared" si="1"/>
         <v>Sweden</v>
       </c>
       <c r="L41" t="s">
@@ -6732,7 +6735,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I42" s="3" t="str">
-        <f>IF(D42="",C42,D42)</f>
+        <f t="shared" si="0"/>
         <v>TUR</v>
       </c>
       <c r="J42" s="3">
@@ -6740,7 +6743,7 @@
         <v>41</v>
       </c>
       <c r="K42" t="str">
-        <f>IF(F42="",E42,F42)</f>
+        <f t="shared" si="1"/>
         <v>Turkey</v>
       </c>
       <c r="L42" t="s">
@@ -6808,7 +6811,7 @@
         <v/>
       </c>
       <c r="I43" s="3" t="str">
-        <f>IF(D43="",C43,D43)</f>
+        <f t="shared" si="0"/>
         <v>TAP</v>
       </c>
       <c r="J43" s="3">
@@ -6816,7 +6819,7 @@
         <v>42</v>
       </c>
       <c r="K43" t="str">
-        <f>IF(F43="",E43,F43)</f>
+        <f t="shared" si="1"/>
         <v>Taipei,China</v>
       </c>
       <c r="L43" t="s">
@@ -6884,7 +6887,7 @@
         <v/>
       </c>
       <c r="I44" s="3" t="str">
-        <f>IF(D44="",C44,D44)</f>
+        <f t="shared" si="0"/>
         <v>USA</v>
       </c>
       <c r="J44" s="3">
@@ -6892,7 +6895,7 @@
         <v>43</v>
       </c>
       <c r="K44" t="str">
-        <f>IF(F44="",E44,F44)</f>
+        <f t="shared" si="1"/>
         <v>United States</v>
       </c>
       <c r="L44" t="s">
@@ -6960,7 +6963,7 @@
         <v>South Asia</v>
       </c>
       <c r="I45" s="3" t="str">
-        <f>IF(D45="",C45,D45)</f>
+        <f t="shared" si="0"/>
         <v>BAN</v>
       </c>
       <c r="J45" s="3">
@@ -6968,7 +6971,7 @@
         <v>44</v>
       </c>
       <c r="K45" t="str">
-        <f>IF(F45="",E45,F45)</f>
+        <f t="shared" si="1"/>
         <v>Bangladesh</v>
       </c>
       <c r="L45" t="s">
@@ -7036,7 +7039,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I46" s="3" t="str">
-        <f>IF(D46="",C46,D46)</f>
+        <f t="shared" si="0"/>
         <v>MAL</v>
       </c>
       <c r="J46" s="3">
@@ -7044,7 +7047,7 @@
         <v>45</v>
       </c>
       <c r="K46" t="str">
-        <f>IF(F46="",E46,F46)</f>
+        <f t="shared" si="1"/>
         <v>Malaysia</v>
       </c>
       <c r="L46" t="s">
@@ -7112,7 +7115,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I47" s="3" t="str">
-        <f>IF(D47="",C47,D47)</f>
+        <f t="shared" si="0"/>
         <v>PHI</v>
       </c>
       <c r="J47" s="3">
@@ -7120,7 +7123,7 @@
         <v>46</v>
       </c>
       <c r="K47" t="str">
-        <f>IF(F47="",E47,F47)</f>
+        <f t="shared" si="1"/>
         <v>Philippines</v>
       </c>
       <c r="L47" t="s">
@@ -7188,7 +7191,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I48" s="3" t="str">
-        <f>IF(D48="",C48,D48)</f>
+        <f t="shared" si="0"/>
         <v>THA</v>
       </c>
       <c r="J48" s="3">
@@ -7196,7 +7199,7 @@
         <v>47</v>
       </c>
       <c r="K48" t="str">
-        <f>IF(F48="",E48,F48)</f>
+        <f t="shared" si="1"/>
         <v>Thailand</v>
       </c>
       <c r="L48" t="s">
@@ -7264,7 +7267,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I49" s="3" t="str">
-        <f>IF(D49="",C49,D49)</f>
+        <f t="shared" si="0"/>
         <v>VIE</v>
       </c>
       <c r="J49" s="3">
@@ -7272,7 +7275,7 @@
         <v>48</v>
       </c>
       <c r="K49" t="str">
-        <f>IF(F49="",E49,F49)</f>
+        <f t="shared" si="1"/>
         <v>Viet Nam</v>
       </c>
       <c r="L49" t="s">
@@ -7340,7 +7343,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I50" s="3" t="str">
-        <f>IF(D50="",C50,D50)</f>
+        <f t="shared" si="0"/>
         <v>KAZ</v>
       </c>
       <c r="J50" s="3">
@@ -7348,7 +7351,7 @@
         <v>49</v>
       </c>
       <c r="K50" t="str">
-        <f>IF(F50="",E50,F50)</f>
+        <f t="shared" si="1"/>
         <v>Kazakhstan</v>
       </c>
       <c r="L50" t="s">
@@ -7416,7 +7419,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I51" s="3" t="str">
-        <f>IF(D51="",C51,D51)</f>
+        <f t="shared" si="0"/>
         <v>MON</v>
       </c>
       <c r="J51" s="3">
@@ -7424,7 +7427,7 @@
         <v>50</v>
       </c>
       <c r="K51" t="str">
-        <f>IF(F51="",E51,F51)</f>
+        <f t="shared" si="1"/>
         <v>Mongolia</v>
       </c>
       <c r="L51" t="s">
@@ -7492,7 +7495,7 @@
         <v>South Asia</v>
       </c>
       <c r="I52" s="3" t="str">
-        <f>IF(D52="",C52,D52)</f>
+        <f t="shared" si="0"/>
         <v>SRI</v>
       </c>
       <c r="J52" s="3">
@@ -7500,7 +7503,7 @@
         <v>51</v>
       </c>
       <c r="K52" t="str">
-        <f>IF(F52="",E52,F52)</f>
+        <f t="shared" si="1"/>
         <v>Sri Lanka</v>
       </c>
       <c r="L52" t="s">
@@ -7568,7 +7571,7 @@
         <v>South Asia</v>
       </c>
       <c r="I53" s="3" t="str">
-        <f>IF(D53="",C53,D53)</f>
+        <f t="shared" si="0"/>
         <v>PAK</v>
       </c>
       <c r="J53" s="3">
@@ -7576,7 +7579,7 @@
         <v>52</v>
       </c>
       <c r="K53" t="str">
-        <f>IF(F53="",E53,F53)</f>
+        <f t="shared" si="1"/>
         <v>Pakistan</v>
       </c>
       <c r="L53" t="s">
@@ -7644,7 +7647,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I54" s="3" t="str">
-        <f>IF(D54="",C54,D54)</f>
+        <f t="shared" si="0"/>
         <v>FIJ</v>
       </c>
       <c r="J54" s="3">
@@ -7652,7 +7655,7 @@
         <v>53</v>
       </c>
       <c r="K54" t="str">
-        <f>IF(F54="",E54,F54)</f>
+        <f t="shared" si="1"/>
         <v>Fiji</v>
       </c>
       <c r="L54" t="s">
@@ -7720,7 +7723,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I55" s="3" t="str">
-        <f>IF(D55="",C55,D55)</f>
+        <f t="shared" si="0"/>
         <v>LAO</v>
       </c>
       <c r="J55" s="3">
@@ -7728,7 +7731,7 @@
         <v>54</v>
       </c>
       <c r="K55" t="str">
-        <f>IF(F55="",E55,F55)</f>
+        <f t="shared" si="1"/>
         <v>Lao People's Democratic Republic</v>
       </c>
       <c r="L55" t="s">
@@ -7796,7 +7799,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I56" s="3" t="str">
-        <f>IF(D56="",C56,D56)</f>
+        <f t="shared" si="0"/>
         <v>BRU</v>
       </c>
       <c r="J56" s="3">
@@ -7804,7 +7807,7 @@
         <v>55</v>
       </c>
       <c r="K56" t="str">
-        <f>IF(F56="",E56,F56)</f>
+        <f t="shared" si="1"/>
         <v>Brunei Darussalam</v>
       </c>
       <c r="L56" t="s">
@@ -7872,7 +7875,7 @@
         <v>South Asia</v>
       </c>
       <c r="I57" s="3" t="str">
-        <f>IF(D57="",C57,D57)</f>
+        <f t="shared" si="0"/>
         <v>BHU</v>
       </c>
       <c r="J57" s="3">
@@ -7880,7 +7883,7 @@
         <v>56</v>
       </c>
       <c r="K57" t="str">
-        <f>IF(F57="",E57,F57)</f>
+        <f t="shared" si="1"/>
         <v>Bhutan</v>
       </c>
       <c r="L57" t="s">
@@ -7948,7 +7951,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I58" s="3" t="str">
-        <f>IF(D58="",C58,D58)</f>
+        <f t="shared" si="0"/>
         <v>KGZ</v>
       </c>
       <c r="J58" s="3">
@@ -7956,7 +7959,7 @@
         <v>57</v>
       </c>
       <c r="K58" t="str">
-        <f>IF(F58="",E58,F58)</f>
+        <f t="shared" si="1"/>
         <v>Kyrgyz Republic</v>
       </c>
       <c r="L58" t="s">
@@ -8024,7 +8027,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I59" s="3" t="str">
-        <f>IF(D59="",C59,D59)</f>
+        <f t="shared" si="0"/>
         <v>CAM</v>
       </c>
       <c r="J59" s="3">
@@ -8032,7 +8035,7 @@
         <v>58</v>
       </c>
       <c r="K59" t="str">
-        <f>IF(F59="",E59,F59)</f>
+        <f t="shared" si="1"/>
         <v>Cambodia</v>
       </c>
       <c r="L59" t="s">
@@ -8100,7 +8103,7 @@
         <v>South Asia</v>
       </c>
       <c r="I60" s="3" t="str">
-        <f>IF(D60="",C60,D60)</f>
+        <f t="shared" si="0"/>
         <v>MLD</v>
       </c>
       <c r="J60" s="3">
@@ -8108,7 +8111,7 @@
         <v>59</v>
       </c>
       <c r="K60" t="str">
-        <f>IF(F60="",E60,F60)</f>
+        <f t="shared" si="1"/>
         <v>Maldives</v>
       </c>
       <c r="L60" t="s">
@@ -8176,7 +8179,7 @@
         <v>South Asia</v>
       </c>
       <c r="I61" s="3" t="str">
-        <f>IF(D61="",C61,D61)</f>
+        <f t="shared" si="0"/>
         <v>NEP</v>
       </c>
       <c r="J61" s="3">
@@ -8184,7 +8187,7 @@
         <v>60</v>
       </c>
       <c r="K61" t="str">
-        <f>IF(F61="",E61,F61)</f>
+        <f t="shared" si="1"/>
         <v>Nepal</v>
       </c>
       <c r="L61" t="s">
@@ -8252,7 +8255,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I62" s="3" t="str">
-        <f>IF(D62="",C62,D62)</f>
+        <f t="shared" si="0"/>
         <v>SIN</v>
       </c>
       <c r="J62" s="3">
@@ -8260,7 +8263,7 @@
         <v>61</v>
       </c>
       <c r="K62" t="str">
-        <f>IF(F62="",E62,F62)</f>
+        <f t="shared" si="1"/>
         <v>Singapore</v>
       </c>
       <c r="L62" t="s">
@@ -8328,7 +8331,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I63" s="3" t="str">
-        <f>IF(D63="",C63,D63)</f>
+        <f t="shared" si="0"/>
         <v>HKG</v>
       </c>
       <c r="J63" s="3">
@@ -8336,7 +8339,7 @@
         <v>62</v>
       </c>
       <c r="K63" t="str">
-        <f>IF(F63="",E63,F63)</f>
+        <f t="shared" si="1"/>
         <v>Hong Kong, China</v>
       </c>
       <c r="L63" t="s">
@@ -8404,7 +8407,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I64" s="3" t="str">
-        <f>IF(D64="",C64,D64)</f>
+        <f t="shared" si="0"/>
         <v>ARG</v>
       </c>
       <c r="J64" s="3">
@@ -8412,7 +8415,7 @@
         <v>63</v>
       </c>
       <c r="K64" t="str">
-        <f>IF(F64="",E64,F64)</f>
+        <f t="shared" si="1"/>
         <v>Argentina</v>
       </c>
       <c r="L64" t="s">
@@ -8480,7 +8483,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I65" s="3" t="str">
-        <f>IF(D65="",C65,D65)</f>
+        <f t="shared" si="0"/>
         <v>COL</v>
       </c>
       <c r="J65" s="3">
@@ -8488,7 +8491,7 @@
         <v>64</v>
       </c>
       <c r="K65" t="str">
-        <f>IF(F65="",E65,F65)</f>
+        <f t="shared" si="1"/>
         <v>Colombia</v>
       </c>
       <c r="L65" t="s">
@@ -8556,7 +8559,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I66" s="3" t="str">
-        <f>IF(D66="",C66,D66)</f>
+        <f t="shared" ref="I66:I129" si="2">IF(D66="",C66,D66)</f>
         <v>ECU</v>
       </c>
       <c r="J66" s="3">
@@ -8564,7 +8567,7 @@
         <v>65</v>
       </c>
       <c r="K66" t="str">
-        <f>IF(F66="",E66,F66)</f>
+        <f t="shared" ref="K66:K129" si="3">IF(F66="",E66,F66)</f>
         <v>Ecuador</v>
       </c>
       <c r="L66" t="s">
@@ -8632,7 +8635,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I67" s="3" t="str">
-        <f>IF(D67="",C67,D67)</f>
+        <f t="shared" si="2"/>
         <v>ARM</v>
       </c>
       <c r="J67" s="3">
@@ -8640,7 +8643,7 @@
         <v>66</v>
       </c>
       <c r="K67" t="str">
-        <f>IF(F67="",E67,F67)</f>
+        <f t="shared" si="3"/>
         <v>Armenia</v>
       </c>
       <c r="L67" t="s">
@@ -8708,7 +8711,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I68" s="3" t="str">
-        <f>IF(D68="",C68,D68)</f>
+        <f t="shared" si="2"/>
         <v>GEO</v>
       </c>
       <c r="J68" s="3">
@@ -8716,7 +8719,7 @@
         <v>67</v>
       </c>
       <c r="K68" t="str">
-        <f>IF(F68="",E68,F68)</f>
+        <f t="shared" si="3"/>
         <v>Georgia</v>
       </c>
       <c r="L68" t="s">
@@ -8784,7 +8787,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I69" s="3" t="str">
-        <f>IF(D69="",C69,D69)</f>
+        <f t="shared" si="2"/>
         <v>EGY</v>
       </c>
       <c r="J69" s="3">
@@ -8792,7 +8795,7 @@
         <v>68</v>
       </c>
       <c r="K69" t="str">
-        <f>IF(F69="",E69,F69)</f>
+        <f t="shared" si="3"/>
         <v>Egypt</v>
       </c>
       <c r="L69" t="s">
@@ -8859,16 +8862,15 @@
         <f>IFERROR(VLOOKUP($A70,'World Bank'!$A:$D,4,FALSE),"")</f>
         <v>Middle East and North Africa</v>
       </c>
-      <c r="I70" s="8" t="str">
-        <f>IF(D70="",C70,D70)</f>
-        <v>KWT</v>
+      <c r="I70" s="6" t="s">
+        <v>1050</v>
       </c>
       <c r="J70" s="3">
         <f>IFERROR(IF(VLOOKUP(A70,ADB!A:H,6,FALSE)="","",VLOOKUP(A70,ADB!A:H,6,FALSE)),"")</f>
         <v>69</v>
       </c>
       <c r="K70" t="str">
-        <f>IF(F70="",E70,F70)</f>
+        <f t="shared" si="3"/>
         <v>Kuwait</v>
       </c>
       <c r="L70" t="s">
@@ -8936,7 +8938,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I71" s="3" t="str">
-        <f>IF(D71="",C71,D71)</f>
+        <f t="shared" si="2"/>
         <v>SAU</v>
       </c>
       <c r="J71" s="3">
@@ -8944,7 +8946,7 @@
         <v>70</v>
       </c>
       <c r="K71" t="str">
-        <f>IF(F71="",E71,F71)</f>
+        <f t="shared" si="3"/>
         <v>Saudi Arabia</v>
       </c>
       <c r="L71" t="s">
@@ -9011,16 +9013,15 @@
         <f>IFERROR(VLOOKUP($A72,'World Bank'!$A:$D,4,FALSE),"")</f>
         <v>Middle East and North Africa</v>
       </c>
-      <c r="I72" s="8" t="str">
-        <f>IF(D72="",C72,D72)</f>
-        <v>ARE</v>
+      <c r="I72" s="6" t="s">
+        <v>1049</v>
       </c>
       <c r="J72" s="3">
         <f>IFERROR(IF(VLOOKUP(A72,ADB!A:H,6,FALSE)="","",VLOOKUP(A72,ADB!A:H,6,FALSE)),"")</f>
         <v>71</v>
       </c>
       <c r="K72" t="str">
-        <f>IF(F72="",E72,F72)</f>
+        <f t="shared" si="3"/>
         <v>United Arab Emirates</v>
       </c>
       <c r="L72" t="s">
@@ -9088,7 +9089,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I73" s="3" t="str">
-        <f>IF(D73="",C73,D73)</f>
+        <f t="shared" si="2"/>
         <v>NZL</v>
       </c>
       <c r="J73" s="3">
@@ -9096,7 +9097,7 @@
         <v>72</v>
       </c>
       <c r="K73" t="str">
-        <f>IF(F73="",E73,F73)</f>
+        <f t="shared" si="3"/>
         <v>New Zealand</v>
       </c>
       <c r="L73" t="s">
@@ -9164,7 +9165,7 @@
         <v/>
       </c>
       <c r="I74" s="3" t="str">
-        <f>IF(D74="",C74,D74)</f>
+        <f t="shared" si="2"/>
         <v>ROW</v>
       </c>
       <c r="J74" s="3">
@@ -9172,7 +9173,7 @@
         <v>73</v>
       </c>
       <c r="K74" t="str">
-        <f>IF(F74="",E74,F74)</f>
+        <f t="shared" si="3"/>
         <v>Rest of the world</v>
       </c>
       <c r="L74" s="4"/>
@@ -9238,7 +9239,7 @@
         <v/>
       </c>
       <c r="I75" s="3" t="str">
-        <f>IF(D75="",C75,D75)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J75" s="3" t="str">
@@ -9246,7 +9247,7 @@
         <v/>
       </c>
       <c r="K75" t="str">
-        <f>IF(F75="",E75,F75)</f>
+        <f t="shared" si="3"/>
         <v>Europe EFTA, not elsewhere specified</v>
       </c>
       <c r="L75" t="s">
@@ -9314,7 +9315,7 @@
         <v/>
       </c>
       <c r="I76" s="3" t="str">
-        <f>IF(D76="",C76,D76)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J76" s="3" t="str">
@@ -9322,7 +9323,7 @@
         <v/>
       </c>
       <c r="K76" t="str">
-        <f>IF(F76="",E76,F76)</f>
+        <f t="shared" si="3"/>
         <v>Other Asia, not elsewhere specified</v>
       </c>
       <c r="L76" t="s">
@@ -9390,7 +9391,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I77" s="3" t="str">
-        <f>IF(D77="",C77,D77)</f>
+        <f t="shared" si="2"/>
         <v>ABW</v>
       </c>
       <c r="J77" s="3" t="str">
@@ -9398,7 +9399,7 @@
         <v/>
       </c>
       <c r="K77" t="str">
-        <f>IF(F77="",E77,F77)</f>
+        <f t="shared" si="3"/>
         <v>Aruba</v>
       </c>
       <c r="L77" t="s">
@@ -9466,7 +9467,7 @@
         <v>South Asia</v>
       </c>
       <c r="I78" s="3" t="str">
-        <f>IF(D78="",C78,D78)</f>
+        <f t="shared" si="2"/>
         <v>AFG</v>
       </c>
       <c r="J78" s="3" t="str">
@@ -9474,7 +9475,7 @@
         <v/>
       </c>
       <c r="K78" t="str">
-        <f>IF(F78="",E78,F78)</f>
+        <f t="shared" si="3"/>
         <v>Afghanistan</v>
       </c>
       <c r="L78" t="s">
@@ -9542,7 +9543,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I79" s="3" t="str">
-        <f>IF(D79="",C79,D79)</f>
+        <f t="shared" si="2"/>
         <v>AGO</v>
       </c>
       <c r="J79" s="3" t="str">
@@ -9550,7 +9551,7 @@
         <v/>
       </c>
       <c r="K79" t="str">
-        <f>IF(F79="",E79,F79)</f>
+        <f t="shared" si="3"/>
         <v>Angola</v>
       </c>
       <c r="L79" t="s">
@@ -9618,7 +9619,7 @@
         <v/>
       </c>
       <c r="I80" s="3" t="str">
-        <f>IF(D80="",C80,D80)</f>
+        <f t="shared" si="2"/>
         <v>AIA</v>
       </c>
       <c r="J80" s="3" t="str">
@@ -9626,7 +9627,7 @@
         <v/>
       </c>
       <c r="K80" t="str">
-        <f>IF(F80="",E80,F80)</f>
+        <f t="shared" si="3"/>
         <v>Anguilla</v>
       </c>
       <c r="L80" t="s">
@@ -9694,7 +9695,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I81" s="3" t="str">
-        <f>IF(D81="",C81,D81)</f>
+        <f t="shared" si="2"/>
         <v>ALB</v>
       </c>
       <c r="J81" s="3" t="str">
@@ -9702,7 +9703,7 @@
         <v/>
       </c>
       <c r="K81" t="str">
-        <f>IF(F81="",E81,F81)</f>
+        <f t="shared" si="3"/>
         <v>Albania</v>
       </c>
       <c r="L81" t="s">
@@ -9770,7 +9771,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I82" s="3" t="str">
-        <f>IF(D82="",C82,D82)</f>
+        <f t="shared" si="2"/>
         <v>AND</v>
       </c>
       <c r="J82" s="3" t="str">
@@ -9778,7 +9779,7 @@
         <v/>
       </c>
       <c r="K82" t="str">
-        <f>IF(F82="",E82,F82)</f>
+        <f t="shared" si="3"/>
         <v>Andorra</v>
       </c>
       <c r="L82" t="s">
@@ -9846,7 +9847,7 @@
         <v/>
       </c>
       <c r="I83" s="3" t="str">
-        <f>IF(D83="",C83,D83)</f>
+        <f t="shared" si="2"/>
         <v>ANT</v>
       </c>
       <c r="J83" s="3" t="str">
@@ -9854,7 +9855,7 @@
         <v/>
       </c>
       <c r="K83" t="str">
-        <f>IF(F83="",E83,F83)</f>
+        <f t="shared" si="3"/>
         <v>Netherlands Antilles</v>
       </c>
       <c r="L83" t="s">
@@ -9922,7 +9923,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I84" s="3" t="str">
-        <f>IF(D84="",C84,D84)</f>
+        <f t="shared" si="2"/>
         <v>ASM</v>
       </c>
       <c r="J84" s="3" t="str">
@@ -9930,7 +9931,7 @@
         <v/>
       </c>
       <c r="K84" t="str">
-        <f>IF(F84="",E84,F84)</f>
+        <f t="shared" si="3"/>
         <v>American Samoa</v>
       </c>
       <c r="L84" t="s">
@@ -9998,7 +9999,7 @@
         <v/>
       </c>
       <c r="I85" s="3" t="str">
-        <f>IF(D85="",C85,D85)</f>
+        <f t="shared" si="2"/>
         <v>ATF</v>
       </c>
       <c r="J85" s="3" t="str">
@@ -10006,7 +10007,7 @@
         <v/>
       </c>
       <c r="K85" t="str">
-        <f>IF(F85="",E85,F85)</f>
+        <f t="shared" si="3"/>
         <v>French Southern Territories</v>
       </c>
       <c r="L85" t="s">
@@ -10074,7 +10075,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I86" s="3" t="str">
-        <f>IF(D86="",C86,D86)</f>
+        <f t="shared" si="2"/>
         <v>ATG</v>
       </c>
       <c r="J86" s="3" t="str">
@@ -10082,7 +10083,7 @@
         <v/>
       </c>
       <c r="K86" t="str">
-        <f>IF(F86="",E86,F86)</f>
+        <f t="shared" si="3"/>
         <v>Antigua and Barbuda</v>
       </c>
       <c r="L86" t="s">
@@ -10150,7 +10151,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I87" s="3" t="str">
-        <f>IF(D87="",C87,D87)</f>
+        <f t="shared" si="2"/>
         <v>AZE</v>
       </c>
       <c r="J87" s="3" t="str">
@@ -10158,7 +10159,7 @@
         <v/>
       </c>
       <c r="K87" t="str">
-        <f>IF(F87="",E87,F87)</f>
+        <f t="shared" si="3"/>
         <v>Azerbaijan</v>
       </c>
       <c r="L87" t="s">
@@ -10226,7 +10227,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I88" s="3" t="str">
-        <f>IF(D88="",C88,D88)</f>
+        <f t="shared" si="2"/>
         <v>BDI</v>
       </c>
       <c r="J88" s="3" t="str">
@@ -10234,7 +10235,7 @@
         <v/>
       </c>
       <c r="K88" t="str">
-        <f>IF(F88="",E88,F88)</f>
+        <f t="shared" si="3"/>
         <v>Burundi</v>
       </c>
       <c r="L88" t="s">
@@ -10302,7 +10303,7 @@
         <v/>
       </c>
       <c r="I89" s="3" t="str">
-        <f>IF(D89="",C89,D89)</f>
+        <f t="shared" si="2"/>
         <v>BEL</v>
       </c>
       <c r="J89" s="3" t="str">
@@ -10310,7 +10311,7 @@
         <v/>
       </c>
       <c r="K89" t="str">
-        <f>IF(F89="",E89,F89)</f>
+        <f t="shared" si="3"/>
         <v>Belgium-Luxembourg</v>
       </c>
       <c r="L89" t="s">
@@ -10378,7 +10379,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I90" s="3" t="str">
-        <f>IF(D90="",C90,D90)</f>
+        <f t="shared" si="2"/>
         <v>BEN</v>
       </c>
       <c r="J90" s="3" t="str">
@@ -10386,7 +10387,7 @@
         <v/>
       </c>
       <c r="K90" t="str">
-        <f>IF(F90="",E90,F90)</f>
+        <f t="shared" si="3"/>
         <v>Benin</v>
       </c>
       <c r="L90" t="s">
@@ -10454,7 +10455,7 @@
         <v/>
       </c>
       <c r="I91" s="3" t="str">
-        <f>IF(D91="",C91,D91)</f>
+        <f t="shared" si="2"/>
         <v>BES</v>
       </c>
       <c r="J91" s="3" t="str">
@@ -10462,7 +10463,7 @@
         <v/>
       </c>
       <c r="K91" t="str">
-        <f>IF(F91="",E91,F91)</f>
+        <f t="shared" si="3"/>
         <v>Bonaire, Sint Eustatius and Saba</v>
       </c>
       <c r="L91" t="s">
@@ -10530,7 +10531,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I92" s="3" t="str">
-        <f>IF(D92="",C92,D92)</f>
+        <f t="shared" si="2"/>
         <v>BFA</v>
       </c>
       <c r="J92" s="3" t="str">
@@ -10538,7 +10539,7 @@
         <v/>
       </c>
       <c r="K92" t="str">
-        <f>IF(F92="",E92,F92)</f>
+        <f t="shared" si="3"/>
         <v>Burkina Faso</v>
       </c>
       <c r="L92" t="s">
@@ -10606,7 +10607,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I93" s="3" t="str">
-        <f>IF(D93="",C93,D93)</f>
+        <f t="shared" si="2"/>
         <v>BHR</v>
       </c>
       <c r="J93" s="3" t="str">
@@ -10614,7 +10615,7 @@
         <v/>
       </c>
       <c r="K93" t="str">
-        <f>IF(F93="",E93,F93)</f>
+        <f t="shared" si="3"/>
         <v>Bahrain</v>
       </c>
       <c r="L93" t="s">
@@ -10682,7 +10683,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I94" s="3" t="str">
-        <f>IF(D94="",C94,D94)</f>
+        <f t="shared" si="2"/>
         <v>BHS</v>
       </c>
       <c r="J94" s="3" t="str">
@@ -10690,7 +10691,7 @@
         <v/>
       </c>
       <c r="K94" t="str">
-        <f>IF(F94="",E94,F94)</f>
+        <f t="shared" si="3"/>
         <v>Bahamas</v>
       </c>
       <c r="L94" t="s">
@@ -10758,7 +10759,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I95" s="3" t="str">
-        <f>IF(D95="",C95,D95)</f>
+        <f t="shared" si="2"/>
         <v>BIH</v>
       </c>
       <c r="J95" s="3" t="str">
@@ -10766,7 +10767,7 @@
         <v/>
       </c>
       <c r="K95" t="str">
-        <f>IF(F95="",E95,F95)</f>
+        <f t="shared" si="3"/>
         <v>Bosnia and Herzegovina</v>
       </c>
       <c r="L95" t="s">
@@ -10834,7 +10835,7 @@
         <v/>
       </c>
       <c r="I96" s="3" t="str">
-        <f>IF(D96="",C96,D96)</f>
+        <f t="shared" si="2"/>
         <v>BLM</v>
       </c>
       <c r="J96" s="3" t="str">
@@ -10842,7 +10843,7 @@
         <v/>
       </c>
       <c r="K96" t="str">
-        <f>IF(F96="",E96,F96)</f>
+        <f t="shared" si="3"/>
         <v>Saint Barthélemy</v>
       </c>
       <c r="L96" t="s">
@@ -10910,7 +10911,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I97" s="3" t="str">
-        <f>IF(D97="",C97,D97)</f>
+        <f t="shared" si="2"/>
         <v>BLR</v>
       </c>
       <c r="J97" s="3" t="str">
@@ -10918,7 +10919,7 @@
         <v/>
       </c>
       <c r="K97" t="str">
-        <f>IF(F97="",E97,F97)</f>
+        <f t="shared" si="3"/>
         <v>Belarus</v>
       </c>
       <c r="L97" t="s">
@@ -10986,7 +10987,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I98" s="3" t="str">
-        <f>IF(D98="",C98,D98)</f>
+        <f t="shared" si="2"/>
         <v>BLZ</v>
       </c>
       <c r="J98" s="3" t="str">
@@ -10994,7 +10995,7 @@
         <v/>
       </c>
       <c r="K98" t="str">
-        <f>IF(F98="",E98,F98)</f>
+        <f t="shared" si="3"/>
         <v>Belize</v>
       </c>
       <c r="L98" t="s">
@@ -11062,7 +11063,7 @@
         <v>North America</v>
       </c>
       <c r="I99" s="3" t="str">
-        <f>IF(D99="",C99,D99)</f>
+        <f t="shared" si="2"/>
         <v>BMU</v>
       </c>
       <c r="J99" s="3" t="str">
@@ -11070,7 +11071,7 @@
         <v/>
       </c>
       <c r="K99" t="str">
-        <f>IF(F99="",E99,F99)</f>
+        <f t="shared" si="3"/>
         <v>Bermuda</v>
       </c>
       <c r="L99" t="s">
@@ -11138,7 +11139,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I100" s="3" t="str">
-        <f>IF(D100="",C100,D100)</f>
+        <f t="shared" si="2"/>
         <v>BOL</v>
       </c>
       <c r="J100" s="3" t="str">
@@ -11146,7 +11147,7 @@
         <v/>
       </c>
       <c r="K100" t="str">
-        <f>IF(F100="",E100,F100)</f>
+        <f t="shared" si="3"/>
         <v>Bolivia (Plurinational State of)</v>
       </c>
       <c r="L100" t="s">
@@ -11214,7 +11215,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I101" s="3" t="str">
-        <f>IF(D101="",C101,D101)</f>
+        <f t="shared" si="2"/>
         <v>BRB</v>
       </c>
       <c r="J101" s="3" t="str">
@@ -11222,7 +11223,7 @@
         <v/>
       </c>
       <c r="K101" t="str">
-        <f>IF(F101="",E101,F101)</f>
+        <f t="shared" si="3"/>
         <v>Barbados</v>
       </c>
       <c r="L101" t="s">
@@ -11290,7 +11291,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I102" s="3" t="str">
-        <f>IF(D102="",C102,D102)</f>
+        <f t="shared" si="2"/>
         <v>BWA</v>
       </c>
       <c r="J102" s="3" t="str">
@@ -11298,7 +11299,7 @@
         <v/>
       </c>
       <c r="K102" t="str">
-        <f>IF(F102="",E102,F102)</f>
+        <f t="shared" si="3"/>
         <v>Botswana</v>
       </c>
       <c r="L102" t="s">
@@ -11366,7 +11367,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I103" s="3" t="str">
-        <f>IF(D103="",C103,D103)</f>
+        <f t="shared" si="2"/>
         <v>CAF</v>
       </c>
       <c r="J103" s="3" t="str">
@@ -11374,7 +11375,7 @@
         <v/>
       </c>
       <c r="K103" t="str">
-        <f>IF(F103="",E103,F103)</f>
+        <f t="shared" si="3"/>
         <v>Central African Republic</v>
       </c>
       <c r="L103" t="s">
@@ -11442,7 +11443,7 @@
         <v/>
       </c>
       <c r="I104" s="3" t="str">
-        <f>IF(D104="",C104,D104)</f>
+        <f t="shared" si="2"/>
         <v>CCK</v>
       </c>
       <c r="J104" s="3" t="str">
@@ -11450,7 +11451,7 @@
         <v/>
       </c>
       <c r="K104" t="str">
-        <f>IF(F104="",E104,F104)</f>
+        <f t="shared" si="3"/>
         <v>Cocos (Keeling) Islands</v>
       </c>
       <c r="L104" t="s">
@@ -11518,7 +11519,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I105" s="3" t="str">
-        <f>IF(D105="",C105,D105)</f>
+        <f t="shared" si="2"/>
         <v>CHL</v>
       </c>
       <c r="J105" s="3" t="str">
@@ -11526,7 +11527,7 @@
         <v/>
       </c>
       <c r="K105" t="str">
-        <f>IF(F105="",E105,F105)</f>
+        <f t="shared" si="3"/>
         <v>Chile</v>
       </c>
       <c r="L105" t="s">
@@ -11594,7 +11595,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I106" s="3" t="str">
-        <f>IF(D106="",C106,D106)</f>
+        <f t="shared" si="2"/>
         <v>CIV</v>
       </c>
       <c r="J106" s="3" t="str">
@@ -11602,7 +11603,7 @@
         <v/>
       </c>
       <c r="K106" t="str">
-        <f>IF(F106="",E106,F106)</f>
+        <f t="shared" si="3"/>
         <v>Côte d'Ivoire</v>
       </c>
       <c r="L106" t="s">
@@ -11670,7 +11671,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I107" s="3" t="str">
-        <f>IF(D107="",C107,D107)</f>
+        <f t="shared" si="2"/>
         <v>CMR</v>
       </c>
       <c r="J107" s="3" t="str">
@@ -11678,7 +11679,7 @@
         <v/>
       </c>
       <c r="K107" t="str">
-        <f>IF(F107="",E107,F107)</f>
+        <f t="shared" si="3"/>
         <v>Cameroon</v>
       </c>
       <c r="L107" t="s">
@@ -11746,7 +11747,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I108" s="3" t="str">
-        <f>IF(D108="",C108,D108)</f>
+        <f t="shared" si="2"/>
         <v>COD</v>
       </c>
       <c r="J108" s="3" t="str">
@@ -11754,7 +11755,7 @@
         <v/>
       </c>
       <c r="K108" t="str">
-        <f>IF(F108="",E108,F108)</f>
+        <f t="shared" si="3"/>
         <v>Congo, Democratic Republic of the</v>
       </c>
       <c r="L108" t="s">
@@ -11822,7 +11823,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I109" s="3" t="str">
-        <f>IF(D109="",C109,D109)</f>
+        <f t="shared" si="2"/>
         <v>COG</v>
       </c>
       <c r="J109" s="3" t="str">
@@ -11830,7 +11831,7 @@
         <v/>
       </c>
       <c r="K109" t="str">
-        <f>IF(F109="",E109,F109)</f>
+        <f t="shared" si="3"/>
         <v>Congo</v>
       </c>
       <c r="L109" t="s">
@@ -11898,7 +11899,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I110" s="3" t="str">
-        <f>IF(D110="",C110,D110)</f>
+        <f t="shared" si="2"/>
         <v>COM</v>
       </c>
       <c r="J110" s="3" t="str">
@@ -11906,7 +11907,7 @@
         <v/>
       </c>
       <c r="K110" t="str">
-        <f>IF(F110="",E110,F110)</f>
+        <f t="shared" si="3"/>
         <v>Comoros</v>
       </c>
       <c r="L110" t="s">
@@ -11974,7 +11975,7 @@
         <v/>
       </c>
       <c r="I111" s="3" t="str">
-        <f>IF(D111="",C111,D111)</f>
+        <f t="shared" si="2"/>
         <v>COO</v>
       </c>
       <c r="J111" s="3" t="str">
@@ -11982,7 +11983,7 @@
         <v/>
       </c>
       <c r="K111" t="str">
-        <f>IF(F111="",E111,F111)</f>
+        <f t="shared" si="3"/>
         <v>Cook Islands</v>
       </c>
       <c r="L111" t="s">
@@ -12050,7 +12051,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I112" s="3" t="str">
-        <f>IF(D112="",C112,D112)</f>
+        <f t="shared" si="2"/>
         <v>CPV</v>
       </c>
       <c r="J112" s="3" t="str">
@@ -12058,7 +12059,7 @@
         <v/>
       </c>
       <c r="K112" t="str">
-        <f>IF(F112="",E112,F112)</f>
+        <f t="shared" si="3"/>
         <v>Cabo Verde</v>
       </c>
       <c r="L112" t="s">
@@ -12126,7 +12127,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I113" s="3" t="str">
-        <f>IF(D113="",C113,D113)</f>
+        <f t="shared" si="2"/>
         <v>CRI</v>
       </c>
       <c r="J113" s="3" t="str">
@@ -12134,7 +12135,7 @@
         <v/>
       </c>
       <c r="K113" t="str">
-        <f>IF(F113="",E113,F113)</f>
+        <f t="shared" si="3"/>
         <v>Costa Rica</v>
       </c>
       <c r="L113" t="s">
@@ -12202,7 +12203,7 @@
         <v/>
       </c>
       <c r="I114" s="3" t="str">
-        <f>IF(D114="",C114,D114)</f>
+        <f t="shared" si="2"/>
         <v>CSK</v>
       </c>
       <c r="J114" s="3" t="str">
@@ -12210,7 +12211,7 @@
         <v/>
       </c>
       <c r="K114" t="str">
-        <f>IF(F114="",E114,F114)</f>
+        <f t="shared" si="3"/>
         <v>Czechoslovakia</v>
       </c>
       <c r="L114" t="s">
@@ -12278,7 +12279,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I115" s="3" t="str">
-        <f>IF(D115="",C115,D115)</f>
+        <f t="shared" si="2"/>
         <v>CUB</v>
       </c>
       <c r="J115" s="3" t="str">
@@ -12286,7 +12287,7 @@
         <v/>
       </c>
       <c r="K115" t="str">
-        <f>IF(F115="",E115,F115)</f>
+        <f t="shared" si="3"/>
         <v>Cuba</v>
       </c>
       <c r="L115" t="s">
@@ -12354,7 +12355,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I116" s="3" t="str">
-        <f>IF(D116="",C116,D116)</f>
+        <f t="shared" si="2"/>
         <v>CUW</v>
       </c>
       <c r="J116" s="3" t="str">
@@ -12362,7 +12363,7 @@
         <v/>
       </c>
       <c r="K116" t="str">
-        <f>IF(F116="",E116,F116)</f>
+        <f t="shared" si="3"/>
         <v>Curaçao</v>
       </c>
       <c r="L116" t="s">
@@ -12430,7 +12431,7 @@
         <v/>
       </c>
       <c r="I117" s="3" t="str">
-        <f>IF(D117="",C117,D117)</f>
+        <f t="shared" si="2"/>
         <v>CXR</v>
       </c>
       <c r="J117" s="3" t="str">
@@ -12438,7 +12439,7 @@
         <v/>
       </c>
       <c r="K117" t="str">
-        <f>IF(F117="",E117,F117)</f>
+        <f t="shared" si="3"/>
         <v>Christmas Island</v>
       </c>
       <c r="L117" t="s">
@@ -12506,7 +12507,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I118" s="3" t="str">
-        <f>IF(D118="",C118,D118)</f>
+        <f t="shared" si="2"/>
         <v>CYM</v>
       </c>
       <c r="J118" s="3" t="str">
@@ -12514,7 +12515,7 @@
         <v/>
       </c>
       <c r="K118" t="str">
-        <f>IF(F118="",E118,F118)</f>
+        <f t="shared" si="3"/>
         <v>Cayman Islands</v>
       </c>
       <c r="L118" t="s">
@@ -12582,7 +12583,7 @@
         <v/>
       </c>
       <c r="I119" s="3" t="str">
-        <f>IF(D119="",C119,D119)</f>
+        <f t="shared" si="2"/>
         <v>DDR</v>
       </c>
       <c r="J119" s="3" t="str">
@@ -12590,7 +12591,7 @@
         <v/>
       </c>
       <c r="K119" t="str">
-        <f>IF(F119="",E119,F119)</f>
+        <f t="shared" si="3"/>
         <v>Former Democratic Republic of Germany</v>
       </c>
       <c r="L119" t="s">
@@ -12658,7 +12659,7 @@
         <v/>
       </c>
       <c r="I120" s="3" t="str">
-        <f>IF(D120="",C120,D120)</f>
+        <f t="shared" si="2"/>
         <v>DEU</v>
       </c>
       <c r="J120" s="3" t="str">
@@ -12666,7 +12667,7 @@
         <v/>
       </c>
       <c r="K120" t="str">
-        <f>IF(F120="",E120,F120)</f>
+        <f t="shared" si="3"/>
         <v>Former Federal Republic of Germany</v>
       </c>
       <c r="L120" t="s">
@@ -12734,7 +12735,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I121" s="3" t="str">
-        <f>IF(D121="",C121,D121)</f>
+        <f t="shared" si="2"/>
         <v>DJI</v>
       </c>
       <c r="J121" s="3" t="str">
@@ -12742,7 +12743,7 @@
         <v/>
       </c>
       <c r="K121" t="str">
-        <f>IF(F121="",E121,F121)</f>
+        <f t="shared" si="3"/>
         <v>Djibouti</v>
       </c>
       <c r="L121" t="s">
@@ -12810,7 +12811,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I122" s="3" t="str">
-        <f>IF(D122="",C122,D122)</f>
+        <f t="shared" si="2"/>
         <v>DMA</v>
       </c>
       <c r="J122" s="3" t="str">
@@ -12818,7 +12819,7 @@
         <v/>
       </c>
       <c r="K122" t="str">
-        <f>IF(F122="",E122,F122)</f>
+        <f t="shared" si="3"/>
         <v>Dominica</v>
       </c>
       <c r="L122" t="s">
@@ -12886,7 +12887,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I123" s="3" t="str">
-        <f>IF(D123="",C123,D123)</f>
+        <f t="shared" si="2"/>
         <v>DOM</v>
       </c>
       <c r="J123" s="3" t="str">
@@ -12894,7 +12895,7 @@
         <v/>
       </c>
       <c r="K123" t="str">
-        <f>IF(F123="",E123,F123)</f>
+        <f t="shared" si="3"/>
         <v>Dominican Republic</v>
       </c>
       <c r="L123" t="s">
@@ -12962,7 +12963,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I124" s="3" t="str">
-        <f>IF(D124="",C124,D124)</f>
+        <f t="shared" si="2"/>
         <v>DZA</v>
       </c>
       <c r="J124" s="3" t="str">
@@ -12970,7 +12971,7 @@
         <v/>
       </c>
       <c r="K124" t="str">
-        <f>IF(F124="",E124,F124)</f>
+        <f t="shared" si="3"/>
         <v>Algeria</v>
       </c>
       <c r="L124" t="s">
@@ -13038,7 +13039,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I125" s="3" t="str">
-        <f>IF(D125="",C125,D125)</f>
+        <f t="shared" si="2"/>
         <v>ERI</v>
       </c>
       <c r="J125" s="3" t="str">
@@ -13046,7 +13047,7 @@
         <v/>
       </c>
       <c r="K125" t="str">
-        <f>IF(F125="",E125,F125)</f>
+        <f t="shared" si="3"/>
         <v>Eritrea</v>
       </c>
       <c r="L125" t="s">
@@ -13086,7 +13087,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I126" s="3" t="str">
-        <f>IF(D126="",C126,D126)</f>
+        <f t="shared" si="2"/>
         <v>ETH</v>
       </c>
       <c r="J126" s="3" t="str">
@@ -13094,7 +13095,7 @@
         <v/>
       </c>
       <c r="K126" t="str">
-        <f>IF(F126="",E126,F126)</f>
+        <f t="shared" si="3"/>
         <v>Ethiopia</v>
       </c>
       <c r="L126" t="s">
@@ -13162,7 +13163,7 @@
         <v/>
       </c>
       <c r="I127" s="3" t="str">
-        <f>IF(D127="",C127,D127)</f>
+        <f t="shared" si="2"/>
         <v>FLK</v>
       </c>
       <c r="J127" s="3" t="str">
@@ -13170,7 +13171,7 @@
         <v/>
       </c>
       <c r="K127" t="str">
-        <f>IF(F127="",E127,F127)</f>
+        <f t="shared" si="3"/>
         <v>Falkland Islands (Malvinas)</v>
       </c>
       <c r="L127" t="s">
@@ -13238,7 +13239,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I128" s="3" t="str">
-        <f>IF(D128="",C128,D128)</f>
+        <f t="shared" si="2"/>
         <v>FSM</v>
       </c>
       <c r="J128" s="3" t="str">
@@ -13246,7 +13247,7 @@
         <v/>
       </c>
       <c r="K128" t="str">
-        <f>IF(F128="",E128,F128)</f>
+        <f t="shared" si="3"/>
         <v>Federated States of Micronesia</v>
       </c>
       <c r="L128" t="s">
@@ -13314,7 +13315,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I129" s="3" t="str">
-        <f>IF(D129="",C129,D129)</f>
+        <f t="shared" si="2"/>
         <v>GAB</v>
       </c>
       <c r="J129" s="3" t="str">
@@ -13322,7 +13323,7 @@
         <v/>
       </c>
       <c r="K129" t="str">
-        <f>IF(F129="",E129,F129)</f>
+        <f t="shared" si="3"/>
         <v>Gabon</v>
       </c>
       <c r="L129" t="s">
@@ -13390,7 +13391,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I130" s="3" t="str">
-        <f>IF(D130="",C130,D130)</f>
+        <f t="shared" ref="I130:I193" si="4">IF(D130="",C130,D130)</f>
         <v>GHA</v>
       </c>
       <c r="J130" s="3" t="str">
@@ -13398,7 +13399,7 @@
         <v/>
       </c>
       <c r="K130" t="str">
-        <f>IF(F130="",E130,F130)</f>
+        <f t="shared" ref="K130:K193" si="5">IF(F130="",E130,F130)</f>
         <v>Ghana</v>
       </c>
       <c r="L130" t="s">
@@ -13466,7 +13467,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I131" s="3" t="str">
-        <f>IF(D131="",C131,D131)</f>
+        <f t="shared" si="4"/>
         <v>GIB</v>
       </c>
       <c r="J131" s="3" t="str">
@@ -13474,7 +13475,7 @@
         <v/>
       </c>
       <c r="K131" t="str">
-        <f>IF(F131="",E131,F131)</f>
+        <f t="shared" si="5"/>
         <v>Gibraltar</v>
       </c>
       <c r="L131" t="s">
@@ -13542,7 +13543,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I132" s="3" t="str">
-        <f>IF(D132="",C132,D132)</f>
+        <f t="shared" si="4"/>
         <v>GIN</v>
       </c>
       <c r="J132" s="3" t="str">
@@ -13550,7 +13551,7 @@
         <v/>
       </c>
       <c r="K132" t="str">
-        <f>IF(F132="",E132,F132)</f>
+        <f t="shared" si="5"/>
         <v>Guinea</v>
       </c>
       <c r="L132" t="s">
@@ -13618,7 +13619,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I133" s="3" t="str">
-        <f>IF(D133="",C133,D133)</f>
+        <f t="shared" si="4"/>
         <v>GMB</v>
       </c>
       <c r="J133" s="3" t="str">
@@ -13626,7 +13627,7 @@
         <v/>
       </c>
       <c r="K133" t="str">
-        <f>IF(F133="",E133,F133)</f>
+        <f t="shared" si="5"/>
         <v>Gambia</v>
       </c>
       <c r="L133" t="s">
@@ -13694,7 +13695,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I134" s="3" t="str">
-        <f>IF(D134="",C134,D134)</f>
+        <f t="shared" si="4"/>
         <v>GNB</v>
       </c>
       <c r="J134" s="3" t="str">
@@ -13702,7 +13703,7 @@
         <v/>
       </c>
       <c r="K134" t="str">
-        <f>IF(F134="",E134,F134)</f>
+        <f t="shared" si="5"/>
         <v>Guinea-Bissau</v>
       </c>
       <c r="L134" t="s">
@@ -13770,7 +13771,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I135" s="3" t="str">
-        <f>IF(D135="",C135,D135)</f>
+        <f t="shared" si="4"/>
         <v>GNQ</v>
       </c>
       <c r="J135" s="3" t="str">
@@ -13778,7 +13779,7 @@
         <v/>
       </c>
       <c r="K135" t="str">
-        <f>IF(F135="",E135,F135)</f>
+        <f t="shared" si="5"/>
         <v>Equatorial Guinea</v>
       </c>
       <c r="L135" t="s">
@@ -13846,7 +13847,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I136" s="3" t="str">
-        <f>IF(D136="",C136,D136)</f>
+        <f t="shared" si="4"/>
         <v>GRD</v>
       </c>
       <c r="J136" s="3" t="str">
@@ -13854,7 +13855,7 @@
         <v/>
       </c>
       <c r="K136" t="str">
-        <f>IF(F136="",E136,F136)</f>
+        <f t="shared" si="5"/>
         <v>Grenada</v>
       </c>
       <c r="L136" t="s">
@@ -13922,7 +13923,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I137" s="3" t="str">
-        <f>IF(D137="",C137,D137)</f>
+        <f t="shared" si="4"/>
         <v>GRL</v>
       </c>
       <c r="J137" s="3" t="str">
@@ -13930,7 +13931,7 @@
         <v/>
       </c>
       <c r="K137" t="str">
-        <f>IF(F137="",E137,F137)</f>
+        <f t="shared" si="5"/>
         <v>Greenland</v>
       </c>
       <c r="L137" t="s">
@@ -13998,7 +13999,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I138" s="3" t="str">
-        <f>IF(D138="",C138,D138)</f>
+        <f t="shared" si="4"/>
         <v>GTM</v>
       </c>
       <c r="J138" s="3" t="str">
@@ -14006,7 +14007,7 @@
         <v/>
       </c>
       <c r="K138" t="str">
-        <f>IF(F138="",E138,F138)</f>
+        <f t="shared" si="5"/>
         <v>Guatemala</v>
       </c>
       <c r="L138" t="s">
@@ -14074,7 +14075,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I139" s="3" t="str">
-        <f>IF(D139="",C139,D139)</f>
+        <f t="shared" si="4"/>
         <v>GUM</v>
       </c>
       <c r="J139" s="3" t="str">
@@ -14082,7 +14083,7 @@
         <v/>
       </c>
       <c r="K139" t="str">
-        <f>IF(F139="",E139,F139)</f>
+        <f t="shared" si="5"/>
         <v>Guam</v>
       </c>
       <c r="L139" t="s">
@@ -14150,7 +14151,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I140" s="3" t="str">
-        <f>IF(D140="",C140,D140)</f>
+        <f t="shared" si="4"/>
         <v>GUY</v>
       </c>
       <c r="J140" s="3" t="str">
@@ -14158,7 +14159,7 @@
         <v/>
       </c>
       <c r="K140" t="str">
-        <f>IF(F140="",E140,F140)</f>
+        <f t="shared" si="5"/>
         <v>Guyana</v>
       </c>
       <c r="L140" t="s">
@@ -14226,7 +14227,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I141" s="3" t="str">
-        <f>IF(D141="",C141,D141)</f>
+        <f t="shared" si="4"/>
         <v>HND</v>
       </c>
       <c r="J141" s="3" t="str">
@@ -14234,7 +14235,7 @@
         <v/>
       </c>
       <c r="K141" t="str">
-        <f>IF(F141="",E141,F141)</f>
+        <f t="shared" si="5"/>
         <v>Honduras</v>
       </c>
       <c r="L141" t="s">
@@ -14302,7 +14303,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I142" s="3" t="str">
-        <f>IF(D142="",C142,D142)</f>
+        <f t="shared" si="4"/>
         <v>HTI</v>
       </c>
       <c r="J142" s="3" t="str">
@@ -14310,7 +14311,7 @@
         <v/>
       </c>
       <c r="K142" t="str">
-        <f>IF(F142="",E142,F142)</f>
+        <f t="shared" si="5"/>
         <v>Haiti</v>
       </c>
       <c r="L142" t="s">
@@ -14378,7 +14379,7 @@
         <v/>
       </c>
       <c r="I143" s="3" t="str">
-        <f>IF(D143="",C143,D143)</f>
+        <f t="shared" si="4"/>
         <v>IOT</v>
       </c>
       <c r="J143" s="3" t="str">
@@ -14386,7 +14387,7 @@
         <v/>
       </c>
       <c r="K143" t="str">
-        <f>IF(F143="",E143,F143)</f>
+        <f t="shared" si="5"/>
         <v>British Indian Ocean Territory</v>
       </c>
       <c r="L143" t="s">
@@ -14454,7 +14455,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I144" s="3" t="str">
-        <f>IF(D144="",C144,D144)</f>
+        <f t="shared" si="4"/>
         <v>IRN</v>
       </c>
       <c r="J144" s="3" t="str">
@@ -14462,7 +14463,7 @@
         <v/>
       </c>
       <c r="K144" t="str">
-        <f>IF(F144="",E144,F144)</f>
+        <f t="shared" si="5"/>
         <v>Iran (Islamic Republic of)</v>
       </c>
       <c r="L144" t="s">
@@ -14530,7 +14531,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I145" s="3" t="str">
-        <f>IF(D145="",C145,D145)</f>
+        <f t="shared" si="4"/>
         <v>IRQ</v>
       </c>
       <c r="J145" s="3" t="str">
@@ -14538,7 +14539,7 @@
         <v/>
       </c>
       <c r="K145" t="str">
-        <f>IF(F145="",E145,F145)</f>
+        <f t="shared" si="5"/>
         <v>Iraq</v>
       </c>
       <c r="L145" t="s">
@@ -14606,7 +14607,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I146" s="3" t="str">
-        <f>IF(D146="",C146,D146)</f>
+        <f t="shared" si="4"/>
         <v>ISL</v>
       </c>
       <c r="J146" s="3" t="str">
@@ -14614,7 +14615,7 @@
         <v/>
       </c>
       <c r="K146" t="str">
-        <f>IF(F146="",E146,F146)</f>
+        <f t="shared" si="5"/>
         <v>Iceland</v>
       </c>
       <c r="L146" t="s">
@@ -14682,7 +14683,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I147" s="3" t="str">
-        <f>IF(D147="",C147,D147)</f>
+        <f t="shared" si="4"/>
         <v>ISR</v>
       </c>
       <c r="J147" s="3" t="str">
@@ -14690,7 +14691,7 @@
         <v/>
       </c>
       <c r="K147" t="str">
-        <f>IF(F147="",E147,F147)</f>
+        <f t="shared" si="5"/>
         <v>Israel</v>
       </c>
       <c r="L147" t="s">
@@ -14758,7 +14759,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I148" s="3" t="str">
-        <f>IF(D148="",C148,D148)</f>
+        <f t="shared" si="4"/>
         <v>JAM</v>
       </c>
       <c r="J148" s="3" t="str">
@@ -14766,7 +14767,7 @@
         <v/>
       </c>
       <c r="K148" t="str">
-        <f>IF(F148="",E148,F148)</f>
+        <f t="shared" si="5"/>
         <v>Jamaica</v>
       </c>
       <c r="L148" t="s">
@@ -14834,7 +14835,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I149" s="3" t="str">
-        <f>IF(D149="",C149,D149)</f>
+        <f t="shared" si="4"/>
         <v>JOR</v>
       </c>
       <c r="J149" s="3" t="str">
@@ -14842,7 +14843,7 @@
         <v/>
       </c>
       <c r="K149" t="str">
-        <f>IF(F149="",E149,F149)</f>
+        <f t="shared" si="5"/>
         <v>Jordan</v>
       </c>
       <c r="L149" t="s">
@@ -14910,7 +14911,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I150" s="3" t="str">
-        <f>IF(D150="",C150,D150)</f>
+        <f t="shared" si="4"/>
         <v>KEN</v>
       </c>
       <c r="J150" s="3" t="str">
@@ -14918,7 +14919,7 @@
         <v/>
       </c>
       <c r="K150" t="str">
-        <f>IF(F150="",E150,F150)</f>
+        <f t="shared" si="5"/>
         <v>Kenya</v>
       </c>
       <c r="L150" t="s">
@@ -14986,7 +14987,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I151" s="3" t="str">
-        <f>IF(D151="",C151,D151)</f>
+        <f t="shared" si="4"/>
         <v>KIR</v>
       </c>
       <c r="J151" s="3" t="str">
@@ -14994,7 +14995,7 @@
         <v/>
       </c>
       <c r="K151" t="str">
-        <f>IF(F151="",E151,F151)</f>
+        <f t="shared" si="5"/>
         <v>Kiribati</v>
       </c>
       <c r="L151" t="s">
@@ -15062,7 +15063,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I152" s="3" t="str">
-        <f>IF(D152="",C152,D152)</f>
+        <f t="shared" si="4"/>
         <v>KNA</v>
       </c>
       <c r="J152" s="3" t="str">
@@ -15070,7 +15071,7 @@
         <v/>
       </c>
       <c r="K152" t="str">
-        <f>IF(F152="",E152,F152)</f>
+        <f t="shared" si="5"/>
         <v>Saint Kitts and Nevis</v>
       </c>
       <c r="L152" t="s">
@@ -15138,7 +15139,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I153" s="3" t="str">
-        <f>IF(D153="",C153,D153)</f>
+        <f t="shared" si="4"/>
         <v>LBN</v>
       </c>
       <c r="J153" s="3" t="str">
@@ -15146,7 +15147,7 @@
         <v/>
       </c>
       <c r="K153" t="str">
-        <f>IF(F153="",E153,F153)</f>
+        <f t="shared" si="5"/>
         <v>Lebanon</v>
       </c>
       <c r="L153" t="s">
@@ -15214,7 +15215,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I154" s="3" t="str">
-        <f>IF(D154="",C154,D154)</f>
+        <f t="shared" si="4"/>
         <v>LBR</v>
       </c>
       <c r="J154" s="3" t="str">
@@ -15222,7 +15223,7 @@
         <v/>
       </c>
       <c r="K154" t="str">
-        <f>IF(F154="",E154,F154)</f>
+        <f t="shared" si="5"/>
         <v>Liberia</v>
       </c>
       <c r="L154" t="s">
@@ -15290,7 +15291,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I155" s="3" t="str">
-        <f>IF(D155="",C155,D155)</f>
+        <f t="shared" si="4"/>
         <v>LBY</v>
       </c>
       <c r="J155" s="3" t="str">
@@ -15298,7 +15299,7 @@
         <v/>
       </c>
       <c r="K155" t="str">
-        <f>IF(F155="",E155,F155)</f>
+        <f t="shared" si="5"/>
         <v>Libya</v>
       </c>
       <c r="L155" t="s">
@@ -15366,7 +15367,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I156" s="3" t="str">
-        <f>IF(D156="",C156,D156)</f>
+        <f t="shared" si="4"/>
         <v>LCA</v>
       </c>
       <c r="J156" s="3" t="str">
@@ -15374,7 +15375,7 @@
         <v/>
       </c>
       <c r="K156" t="str">
-        <f>IF(F156="",E156,F156)</f>
+        <f t="shared" si="5"/>
         <v>Saint Lucia</v>
       </c>
       <c r="L156" t="s">
@@ -15442,7 +15443,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I157" s="3" t="str">
-        <f>IF(D157="",C157,D157)</f>
+        <f t="shared" si="4"/>
         <v>LSO</v>
       </c>
       <c r="J157" s="3" t="str">
@@ -15450,7 +15451,7 @@
         <v/>
       </c>
       <c r="K157" t="str">
-        <f>IF(F157="",E157,F157)</f>
+        <f t="shared" si="5"/>
         <v>Lesotho</v>
       </c>
       <c r="L157" t="s">
@@ -15518,7 +15519,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I158" s="3" t="str">
-        <f>IF(D158="",C158,D158)</f>
+        <f t="shared" si="4"/>
         <v>MAC</v>
       </c>
       <c r="J158" s="3" t="str">
@@ -15526,7 +15527,7 @@
         <v/>
       </c>
       <c r="K158" t="str">
-        <f>IF(F158="",E158,F158)</f>
+        <f t="shared" si="5"/>
         <v>Macao</v>
       </c>
       <c r="L158" t="s">
@@ -15594,7 +15595,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I159" s="3" t="str">
-        <f>IF(D159="",C159,D159)</f>
+        <f t="shared" si="4"/>
         <v>MAR</v>
       </c>
       <c r="J159" s="3" t="str">
@@ -15602,7 +15603,7 @@
         <v/>
       </c>
       <c r="K159" t="str">
-        <f>IF(F159="",E159,F159)</f>
+        <f t="shared" si="5"/>
         <v>Morocco</v>
       </c>
       <c r="L159" t="s">
@@ -15670,7 +15671,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I160" s="3" t="str">
-        <f>IF(D160="",C160,D160)</f>
+        <f t="shared" si="4"/>
         <v>MDA</v>
       </c>
       <c r="J160" s="3" t="str">
@@ -15678,7 +15679,7 @@
         <v/>
       </c>
       <c r="K160" t="str">
-        <f>IF(F160="",E160,F160)</f>
+        <f t="shared" si="5"/>
         <v>Moldova, Republic of</v>
       </c>
       <c r="L160" t="s">
@@ -15746,7 +15747,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I161" s="3" t="str">
-        <f>IF(D161="",C161,D161)</f>
+        <f t="shared" si="4"/>
         <v>MDG</v>
       </c>
       <c r="J161" s="3" t="str">
@@ -15754,7 +15755,7 @@
         <v/>
       </c>
       <c r="K161" t="str">
-        <f>IF(F161="",E161,F161)</f>
+        <f t="shared" si="5"/>
         <v>Madagascar</v>
       </c>
       <c r="L161" t="s">
@@ -15822,7 +15823,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I162" s="3" t="str">
-        <f>IF(D162="",C162,D162)</f>
+        <f t="shared" si="4"/>
         <v>MKD</v>
       </c>
       <c r="J162" s="3" t="str">
@@ -15830,7 +15831,7 @@
         <v/>
       </c>
       <c r="K162" t="str">
-        <f>IF(F162="",E162,F162)</f>
+        <f t="shared" si="5"/>
         <v>North Macedonia</v>
       </c>
       <c r="L162" t="s">
@@ -15898,7 +15899,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I163" s="3" t="str">
-        <f>IF(D163="",C163,D163)</f>
+        <f t="shared" si="4"/>
         <v>MLI</v>
       </c>
       <c r="J163" s="3" t="str">
@@ -15906,7 +15907,7 @@
         <v/>
       </c>
       <c r="K163" t="str">
-        <f>IF(F163="",E163,F163)</f>
+        <f t="shared" si="5"/>
         <v>Mali</v>
       </c>
       <c r="L163" t="s">
@@ -15974,7 +15975,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I164" s="3" t="str">
-        <f>IF(D164="",C164,D164)</f>
+        <f t="shared" si="4"/>
         <v>MNE</v>
       </c>
       <c r="J164" s="3" t="str">
@@ -15982,7 +15983,7 @@
         <v/>
       </c>
       <c r="K164" t="str">
-        <f>IF(F164="",E164,F164)</f>
+        <f t="shared" si="5"/>
         <v>Montenegro</v>
       </c>
       <c r="L164" t="s">
@@ -16050,7 +16051,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I165" s="3" t="str">
-        <f>IF(D165="",C165,D165)</f>
+        <f t="shared" si="4"/>
         <v>MNP</v>
       </c>
       <c r="J165" s="3" t="str">
@@ -16058,7 +16059,7 @@
         <v/>
       </c>
       <c r="K165" t="str">
-        <f>IF(F165="",E165,F165)</f>
+        <f t="shared" si="5"/>
         <v>Northern Mariana Islands</v>
       </c>
       <c r="L165" t="s">
@@ -16126,7 +16127,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I166" s="3" t="str">
-        <f>IF(D166="",C166,D166)</f>
+        <f t="shared" si="4"/>
         <v>MOZ</v>
       </c>
       <c r="J166" s="3" t="str">
@@ -16134,7 +16135,7 @@
         <v/>
       </c>
       <c r="K166" t="str">
-        <f>IF(F166="",E166,F166)</f>
+        <f t="shared" si="5"/>
         <v>Mozambique</v>
       </c>
       <c r="L166" t="s">
@@ -16202,7 +16203,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I167" s="3" t="str">
-        <f>IF(D167="",C167,D167)</f>
+        <f t="shared" si="4"/>
         <v>MRT</v>
       </c>
       <c r="J167" s="3" t="str">
@@ -16210,7 +16211,7 @@
         <v/>
       </c>
       <c r="K167" t="str">
-        <f>IF(F167="",E167,F167)</f>
+        <f t="shared" si="5"/>
         <v>Mauritania</v>
       </c>
       <c r="L167" t="s">
@@ -16278,7 +16279,7 @@
         <v/>
       </c>
       <c r="I168" s="3" t="str">
-        <f>IF(D168="",C168,D168)</f>
+        <f t="shared" si="4"/>
         <v>MSR</v>
       </c>
       <c r="J168" s="3" t="str">
@@ -16286,7 +16287,7 @@
         <v/>
       </c>
       <c r="K168" t="str">
-        <f>IF(F168="",E168,F168)</f>
+        <f t="shared" si="5"/>
         <v>Montserrat</v>
       </c>
       <c r="L168" t="s">
@@ -16354,7 +16355,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I169" s="3" t="str">
-        <f>IF(D169="",C169,D169)</f>
+        <f t="shared" si="4"/>
         <v>MUS</v>
       </c>
       <c r="J169" s="3" t="str">
@@ -16362,7 +16363,7 @@
         <v/>
       </c>
       <c r="K169" t="str">
-        <f>IF(F169="",E169,F169)</f>
+        <f t="shared" si="5"/>
         <v>Mauritius</v>
       </c>
       <c r="L169" t="s">
@@ -16430,7 +16431,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I170" s="3" t="str">
-        <f>IF(D170="",C170,D170)</f>
+        <f t="shared" si="4"/>
         <v>MWI</v>
       </c>
       <c r="J170" s="3" t="str">
@@ -16438,7 +16439,7 @@
         <v/>
       </c>
       <c r="K170" t="str">
-        <f>IF(F170="",E170,F170)</f>
+        <f t="shared" si="5"/>
         <v>Malawi</v>
       </c>
       <c r="L170" t="s">
@@ -16506,7 +16507,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I171" s="3" t="str">
-        <f>IF(D171="",C171,D171)</f>
+        <f t="shared" si="4"/>
         <v>MYA</v>
       </c>
       <c r="J171" s="3" t="str">
@@ -16514,7 +16515,7 @@
         <v/>
       </c>
       <c r="K171" t="str">
-        <f>IF(F171="",E171,F171)</f>
+        <f t="shared" si="5"/>
         <v>Myanmar</v>
       </c>
       <c r="L171" t="s">
@@ -16582,7 +16583,7 @@
         <v/>
       </c>
       <c r="I172" s="3" t="str">
-        <f>IF(D172="",C172,D172)</f>
+        <f t="shared" si="4"/>
         <v>MYT</v>
       </c>
       <c r="J172" s="3" t="str">
@@ -16590,7 +16591,7 @@
         <v/>
       </c>
       <c r="K172" t="str">
-        <f>IF(F172="",E172,F172)</f>
+        <f t="shared" si="5"/>
         <v>Mayotte</v>
       </c>
       <c r="L172" t="s">
@@ -16658,7 +16659,7 @@
         <v/>
       </c>
       <c r="I173" s="3" t="str">
-        <f>IF(D173="",C173,D173)</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J173" s="3" t="str">
@@ -16666,7 +16667,7 @@
         <v/>
       </c>
       <c r="K173" t="str">
-        <f>IF(F173="",E173,F173)</f>
+        <f t="shared" si="5"/>
         <v>Former Ethiopia</v>
       </c>
       <c r="L173" t="s">
@@ -16734,7 +16735,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I174" s="3" t="str">
-        <f>IF(D174="",C174,D174)</f>
+        <f t="shared" si="4"/>
         <v>NAM</v>
       </c>
       <c r="J174" s="3" t="str">
@@ -16742,7 +16743,7 @@
         <v/>
       </c>
       <c r="K174" t="str">
-        <f>IF(F174="",E174,F174)</f>
+        <f t="shared" si="5"/>
         <v>Namibia</v>
       </c>
       <c r="L174" t="s">
@@ -16810,7 +16811,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I175" s="3" t="str">
-        <f>IF(D175="",C175,D175)</f>
+        <f t="shared" si="4"/>
         <v>NAU</v>
       </c>
       <c r="J175" s="3" t="str">
@@ -16818,7 +16819,7 @@
         <v/>
       </c>
       <c r="K175" t="str">
-        <f>IF(F175="",E175,F175)</f>
+        <f t="shared" si="5"/>
         <v>Nauru</v>
       </c>
       <c r="L175" t="s">
@@ -16886,7 +16887,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I176" s="3" t="str">
-        <f>IF(D176="",C176,D176)</f>
+        <f t="shared" si="4"/>
         <v>NCL</v>
       </c>
       <c r="J176" s="3" t="str">
@@ -16894,7 +16895,7 @@
         <v/>
       </c>
       <c r="K176" t="str">
-        <f>IF(F176="",E176,F176)</f>
+        <f t="shared" si="5"/>
         <v>New Caledonia</v>
       </c>
       <c r="L176" t="s">
@@ -16962,7 +16963,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I177" s="3" t="str">
-        <f>IF(D177="",C177,D177)</f>
+        <f t="shared" si="4"/>
         <v>NER</v>
       </c>
       <c r="J177" s="3" t="str">
@@ -16970,7 +16971,7 @@
         <v/>
       </c>
       <c r="K177" t="str">
-        <f>IF(F177="",E177,F177)</f>
+        <f t="shared" si="5"/>
         <v>Niger</v>
       </c>
       <c r="L177" t="s">
@@ -17038,7 +17039,7 @@
         <v/>
       </c>
       <c r="I178" s="3" t="str">
-        <f>IF(D178="",C178,D178)</f>
+        <f t="shared" si="4"/>
         <v>NFK</v>
       </c>
       <c r="J178" s="3" t="str">
@@ -17046,7 +17047,7 @@
         <v/>
       </c>
       <c r="K178" t="str">
-        <f>IF(F178="",E178,F178)</f>
+        <f t="shared" si="5"/>
         <v>Norfolk Island</v>
       </c>
       <c r="L178" t="s">
@@ -17114,7 +17115,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I179" s="3" t="str">
-        <f>IF(D179="",C179,D179)</f>
+        <f t="shared" si="4"/>
         <v>NGA</v>
       </c>
       <c r="J179" s="3" t="str">
@@ -17122,7 +17123,7 @@
         <v/>
       </c>
       <c r="K179" t="str">
-        <f>IF(F179="",E179,F179)</f>
+        <f t="shared" si="5"/>
         <v>Nigeria</v>
       </c>
       <c r="L179" t="s">
@@ -17190,7 +17191,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I180" s="3" t="str">
-        <f>IF(D180="",C180,D180)</f>
+        <f t="shared" si="4"/>
         <v>NIC</v>
       </c>
       <c r="J180" s="3" t="str">
@@ -17198,7 +17199,7 @@
         <v/>
       </c>
       <c r="K180" t="str">
-        <f>IF(F180="",E180,F180)</f>
+        <f t="shared" si="5"/>
         <v>Nicaragua</v>
       </c>
       <c r="L180" t="s">
@@ -17266,7 +17267,7 @@
         <v/>
       </c>
       <c r="I181" s="3" t="str">
-        <f>IF(D181="",C181,D181)</f>
+        <f t="shared" si="4"/>
         <v>NIU</v>
       </c>
       <c r="J181" s="3" t="str">
@@ -17274,7 +17275,7 @@
         <v/>
       </c>
       <c r="K181" t="str">
-        <f>IF(F181="",E181,F181)</f>
+        <f t="shared" si="5"/>
         <v>Niue</v>
       </c>
       <c r="L181" t="s">
@@ -17342,7 +17343,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I182" s="3" t="str">
-        <f>IF(D182="",C182,D182)</f>
+        <f t="shared" si="4"/>
         <v>OMN</v>
       </c>
       <c r="J182" s="3" t="str">
@@ -17350,7 +17351,7 @@
         <v/>
       </c>
       <c r="K182" t="str">
-        <f>IF(F182="",E182,F182)</f>
+        <f t="shared" si="5"/>
         <v>Oman</v>
       </c>
       <c r="L182" t="s">
@@ -17418,7 +17419,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I183" s="3" t="str">
-        <f>IF(D183="",C183,D183)</f>
+        <f t="shared" si="4"/>
         <v>PAL</v>
       </c>
       <c r="J183" s="3" t="str">
@@ -17426,7 +17427,7 @@
         <v/>
       </c>
       <c r="K183" t="str">
-        <f>IF(F183="",E183,F183)</f>
+        <f t="shared" si="5"/>
         <v>Palau</v>
       </c>
       <c r="L183" t="s">
@@ -17494,7 +17495,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I184" s="3" t="str">
-        <f>IF(D184="",C184,D184)</f>
+        <f t="shared" si="4"/>
         <v>PAN</v>
       </c>
       <c r="J184" s="3" t="str">
@@ -17502,7 +17503,7 @@
         <v/>
       </c>
       <c r="K184" t="str">
-        <f>IF(F184="",E184,F184)</f>
+        <f t="shared" si="5"/>
         <v>Panama</v>
       </c>
       <c r="L184" t="s">
@@ -17570,7 +17571,7 @@
         <v/>
       </c>
       <c r="I185" s="3" t="str">
-        <f>IF(D185="",C185,D185)</f>
+        <f t="shared" si="4"/>
         <v>PCN</v>
       </c>
       <c r="J185" s="3" t="str">
@@ -17578,7 +17579,7 @@
         <v/>
       </c>
       <c r="K185" t="str">
-        <f>IF(F185="",E185,F185)</f>
+        <f t="shared" si="5"/>
         <v>Pitcairn</v>
       </c>
       <c r="L185" t="s">
@@ -17646,7 +17647,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I186" s="3" t="str">
-        <f>IF(D186="",C186,D186)</f>
+        <f t="shared" si="4"/>
         <v>PER</v>
       </c>
       <c r="J186" s="3" t="str">
@@ -17654,7 +17655,7 @@
         <v/>
       </c>
       <c r="K186" t="str">
-        <f>IF(F186="",E186,F186)</f>
+        <f t="shared" si="5"/>
         <v>Peru</v>
       </c>
       <c r="L186" t="s">
@@ -17722,7 +17723,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I187" s="3" t="str">
-        <f>IF(D187="",C187,D187)</f>
+        <f t="shared" si="4"/>
         <v>PNG</v>
       </c>
       <c r="J187" s="3" t="str">
@@ -17730,7 +17731,7 @@
         <v/>
       </c>
       <c r="K187" t="str">
-        <f>IF(F187="",E187,F187)</f>
+        <f t="shared" si="5"/>
         <v>Papua New Guinea</v>
       </c>
       <c r="L187" t="s">
@@ -17798,7 +17799,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I188" s="3" t="str">
-        <f>IF(D188="",C188,D188)</f>
+        <f t="shared" si="4"/>
         <v>PRK</v>
       </c>
       <c r="J188" s="3" t="str">
@@ -17806,7 +17807,7 @@
         <v/>
       </c>
       <c r="K188" t="str">
-        <f>IF(F188="",E188,F188)</f>
+        <f t="shared" si="5"/>
         <v>Korea (Democratic People's Republic of)</v>
       </c>
       <c r="L188" t="s">
@@ -17874,7 +17875,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I189" s="3" t="str">
-        <f>IF(D189="",C189,D189)</f>
+        <f t="shared" si="4"/>
         <v>PRY</v>
       </c>
       <c r="J189" s="3" t="str">
@@ -17882,7 +17883,7 @@
         <v/>
       </c>
       <c r="K189" t="str">
-        <f>IF(F189="",E189,F189)</f>
+        <f t="shared" si="5"/>
         <v>Paraguay</v>
       </c>
       <c r="L189" t="s">
@@ -17950,7 +17951,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I190" s="3" t="str">
-        <f>IF(D190="",C190,D190)</f>
+        <f t="shared" si="4"/>
         <v>PSE</v>
       </c>
       <c r="J190" s="3" t="str">
@@ -17958,7 +17959,7 @@
         <v/>
       </c>
       <c r="K190" t="str">
-        <f>IF(F190="",E190,F190)</f>
+        <f t="shared" si="5"/>
         <v>Palestine, State of</v>
       </c>
       <c r="L190" t="s">
@@ -18026,7 +18027,7 @@
         <v/>
       </c>
       <c r="I191" s="3" t="str">
-        <f>IF(D191="",C191,D191)</f>
+        <f t="shared" si="4"/>
         <v>PUS</v>
       </c>
       <c r="J191" s="3" t="str">
@@ -18034,7 +18035,7 @@
         <v/>
       </c>
       <c r="K191" t="str">
-        <f>IF(F191="",E191,F191)</f>
+        <f t="shared" si="5"/>
         <v>United States Miscellaneous Pacific Islands</v>
       </c>
       <c r="L191" t="s">
@@ -18102,7 +18103,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I192" s="3" t="str">
-        <f>IF(D192="",C192,D192)</f>
+        <f t="shared" si="4"/>
         <v>PYF</v>
       </c>
       <c r="J192" s="3" t="str">
@@ -18110,7 +18111,7 @@
         <v/>
       </c>
       <c r="K192" t="str">
-        <f>IF(F192="",E192,F192)</f>
+        <f t="shared" si="5"/>
         <v>French Polynesia</v>
       </c>
       <c r="L192" t="s">
@@ -18178,7 +18179,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I193" s="3" t="str">
-        <f>IF(D193="",C193,D193)</f>
+        <f t="shared" si="4"/>
         <v>QAT</v>
       </c>
       <c r="J193" s="3" t="str">
@@ -18186,7 +18187,7 @@
         <v/>
       </c>
       <c r="K193" t="str">
-        <f>IF(F193="",E193,F193)</f>
+        <f t="shared" si="5"/>
         <v>Qatar</v>
       </c>
       <c r="L193" t="s">
@@ -18254,7 +18255,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I194" s="3" t="str">
-        <f>IF(D194="",C194,D194)</f>
+        <f t="shared" ref="I194:I242" si="6">IF(D194="",C194,D194)</f>
         <v>RMI</v>
       </c>
       <c r="J194" s="3" t="str">
@@ -18262,7 +18263,7 @@
         <v/>
       </c>
       <c r="K194" t="str">
-        <f>IF(F194="",E194,F194)</f>
+        <f t="shared" ref="K194:K242" si="7">IF(F194="",E194,F194)</f>
         <v>Marshall Islands</v>
       </c>
       <c r="L194" t="s">
@@ -18330,7 +18331,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I195" s="3" t="str">
-        <f>IF(D195="",C195,D195)</f>
+        <f t="shared" si="6"/>
         <v>RWA</v>
       </c>
       <c r="J195" s="3" t="str">
@@ -18338,7 +18339,7 @@
         <v/>
       </c>
       <c r="K195" t="str">
-        <f>IF(F195="",E195,F195)</f>
+        <f t="shared" si="7"/>
         <v>Rwanda</v>
       </c>
       <c r="L195" t="s">
@@ -18406,7 +18407,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I196" s="3" t="str">
-        <f>IF(D196="",C196,D196)</f>
+        <f t="shared" si="6"/>
         <v>SAM</v>
       </c>
       <c r="J196" s="3" t="str">
@@ -18414,7 +18415,7 @@
         <v/>
       </c>
       <c r="K196" t="str">
-        <f>IF(F196="",E196,F196)</f>
+        <f t="shared" si="7"/>
         <v>Samoa</v>
       </c>
       <c r="L196" t="s">
@@ -18482,7 +18483,7 @@
         <v/>
       </c>
       <c r="I197" s="3" t="str">
-        <f>IF(D197="",C197,D197)</f>
+        <f t="shared" si="6"/>
         <v>SCG</v>
       </c>
       <c r="J197" s="3" t="str">
@@ -18490,7 +18491,7 @@
         <v/>
       </c>
       <c r="K197" t="str">
-        <f>IF(F197="",E197,F197)</f>
+        <f t="shared" si="7"/>
         <v>Serbia and Montenegro</v>
       </c>
       <c r="L197" t="s">
@@ -18558,7 +18559,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I198" s="3" t="str">
-        <f>IF(D198="",C198,D198)</f>
+        <f t="shared" si="6"/>
         <v>SCG</v>
       </c>
       <c r="J198" s="3" t="str">
@@ -18566,7 +18567,7 @@
         <v/>
       </c>
       <c r="K198" t="str">
-        <f>IF(F198="",E198,F198)</f>
+        <f t="shared" si="7"/>
         <v>Zambia</v>
       </c>
       <c r="L198" t="s">
@@ -18634,7 +18635,7 @@
         <v/>
       </c>
       <c r="I199" s="3" t="str">
-        <f>IF(D199="",C199,D199)</f>
+        <f t="shared" si="6"/>
         <v>SDN</v>
       </c>
       <c r="J199" s="3" t="str">
@@ -18642,7 +18643,7 @@
         <v/>
       </c>
       <c r="K199" t="str">
-        <f>IF(F199="",E199,F199)</f>
+        <f t="shared" si="7"/>
         <v>Former Sudan</v>
       </c>
       <c r="L199" t="s">
@@ -18710,7 +18711,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I200" s="3" t="str">
-        <f>IF(D200="",C200,D200)</f>
+        <f t="shared" si="6"/>
         <v>SDN</v>
       </c>
       <c r="J200" s="3" t="str">
@@ -18718,7 +18719,7 @@
         <v/>
       </c>
       <c r="K200" t="str">
-        <f>IF(F200="",E200,F200)</f>
+        <f t="shared" si="7"/>
         <v>Sudan</v>
       </c>
       <c r="L200" t="s">
@@ -18786,7 +18787,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I201" s="3" t="str">
-        <f>IF(D201="",C201,D201)</f>
+        <f t="shared" si="6"/>
         <v>SEN</v>
       </c>
       <c r="J201" s="3" t="str">
@@ -18794,7 +18795,7 @@
         <v/>
       </c>
       <c r="K201" t="str">
-        <f>IF(F201="",E201,F201)</f>
+        <f t="shared" si="7"/>
         <v>Senegal</v>
       </c>
       <c r="L201" t="s">
@@ -18862,7 +18863,7 @@
         <v/>
       </c>
       <c r="I202" s="3" t="str">
-        <f>IF(D202="",C202,D202)</f>
+        <f t="shared" si="6"/>
         <v>SHN</v>
       </c>
       <c r="J202" s="3" t="str">
@@ -18870,7 +18871,7 @@
         <v/>
       </c>
       <c r="K202" t="str">
-        <f>IF(F202="",E202,F202)</f>
+        <f t="shared" si="7"/>
         <v>Saint Helena, Ascension and Tristan da Cunha</v>
       </c>
       <c r="L202" t="s">
@@ -18938,7 +18939,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I203" s="3" t="str">
-        <f>IF(D203="",C203,D203)</f>
+        <f t="shared" si="6"/>
         <v>SLE</v>
       </c>
       <c r="J203" s="3" t="str">
@@ -18946,7 +18947,7 @@
         <v/>
       </c>
       <c r="K203" t="str">
-        <f>IF(F203="",E203,F203)</f>
+        <f t="shared" si="7"/>
         <v>Sierra Leone</v>
       </c>
       <c r="L203" t="s">
@@ -19014,7 +19015,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I204" s="3" t="str">
-        <f>IF(D204="",C204,D204)</f>
+        <f t="shared" si="6"/>
         <v>SLV</v>
       </c>
       <c r="J204" s="3" t="str">
@@ -19022,7 +19023,7 @@
         <v/>
       </c>
       <c r="K204" t="str">
-        <f>IF(F204="",E204,F204)</f>
+        <f t="shared" si="7"/>
         <v>El Salvador</v>
       </c>
       <c r="L204" t="s">
@@ -19090,7 +19091,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I205" s="3" t="str">
-        <f>IF(D205="",C205,D205)</f>
+        <f t="shared" si="6"/>
         <v>SMR</v>
       </c>
       <c r="J205" s="3" t="str">
@@ -19098,7 +19099,7 @@
         <v/>
       </c>
       <c r="K205" t="str">
-        <f>IF(F205="",E205,F205)</f>
+        <f t="shared" si="7"/>
         <v>San Marino</v>
       </c>
       <c r="L205" t="s">
@@ -19166,7 +19167,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I206" s="3" t="str">
-        <f>IF(D206="",C206,D206)</f>
+        <f t="shared" si="6"/>
         <v>SOL</v>
       </c>
       <c r="J206" s="3" t="str">
@@ -19174,7 +19175,7 @@
         <v/>
       </c>
       <c r="K206" t="str">
-        <f>IF(F206="",E206,F206)</f>
+        <f t="shared" si="7"/>
         <v>Solomon Islands</v>
       </c>
       <c r="L206" t="s">
@@ -19242,7 +19243,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I207" s="3" t="str">
-        <f>IF(D207="",C207,D207)</f>
+        <f t="shared" si="6"/>
         <v>SOM</v>
       </c>
       <c r="J207" s="3" t="str">
@@ -19250,7 +19251,7 @@
         <v/>
       </c>
       <c r="K207" t="str">
-        <f>IF(F207="",E207,F207)</f>
+        <f t="shared" si="7"/>
         <v>Somalia</v>
       </c>
       <c r="L207" t="s">
@@ -19318,7 +19319,7 @@
         <v/>
       </c>
       <c r="I208" s="3" t="str">
-        <f>IF(D208="",C208,D208)</f>
+        <f t="shared" si="6"/>
         <v>SPM</v>
       </c>
       <c r="J208" s="3" t="str">
@@ -19326,7 +19327,7 @@
         <v/>
       </c>
       <c r="K208" t="str">
-        <f>IF(F208="",E208,F208)</f>
+        <f t="shared" si="7"/>
         <v>Saint Pierre and Miquelon</v>
       </c>
       <c r="L208" t="s">
@@ -19394,7 +19395,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I209" s="3" t="str">
-        <f>IF(D209="",C209,D209)</f>
+        <f t="shared" si="6"/>
         <v>SRB</v>
       </c>
       <c r="J209" s="3" t="str">
@@ -19402,7 +19403,7 @@
         <v/>
       </c>
       <c r="K209" t="str">
-        <f>IF(F209="",E209,F209)</f>
+        <f t="shared" si="7"/>
         <v>Serbia</v>
       </c>
       <c r="L209" t="s">
@@ -19470,7 +19471,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I210" s="3" t="str">
-        <f>IF(D210="",C210,D210)</f>
+        <f t="shared" si="6"/>
         <v>SSD</v>
       </c>
       <c r="J210" s="3" t="str">
@@ -19478,7 +19479,7 @@
         <v/>
       </c>
       <c r="K210" t="str">
-        <f>IF(F210="",E210,F210)</f>
+        <f t="shared" si="7"/>
         <v>South Sudan</v>
       </c>
       <c r="L210" t="s">
@@ -19546,7 +19547,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I211" s="3" t="str">
-        <f>IF(D211="",C211,D211)</f>
+        <f t="shared" si="6"/>
         <v>STP</v>
       </c>
       <c r="J211" s="3" t="str">
@@ -19554,7 +19555,7 @@
         <v/>
       </c>
       <c r="K211" t="str">
-        <f>IF(F211="",E211,F211)</f>
+        <f t="shared" si="7"/>
         <v>Sao Tome and Principe</v>
       </c>
       <c r="L211" t="s">
@@ -19622,7 +19623,7 @@
         <v/>
       </c>
       <c r="I212" s="3" t="str">
-        <f>IF(D212="",C212,D212)</f>
+        <f t="shared" si="6"/>
         <v>SUN</v>
       </c>
       <c r="J212" s="3" t="str">
@@ -19630,7 +19631,7 @@
         <v/>
       </c>
       <c r="K212" t="str">
-        <f>IF(F212="",E212,F212)</f>
+        <f t="shared" si="7"/>
         <v>Former USSR</v>
       </c>
       <c r="L212" t="s">
@@ -19698,7 +19699,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I213" s="3" t="str">
-        <f>IF(D213="",C213,D213)</f>
+        <f t="shared" si="6"/>
         <v>SUR</v>
       </c>
       <c r="J213" s="3" t="str">
@@ -19706,7 +19707,7 @@
         <v/>
       </c>
       <c r="K213" t="str">
-        <f>IF(F213="",E213,F213)</f>
+        <f t="shared" si="7"/>
         <v>Suriname</v>
       </c>
       <c r="L213" t="s">
@@ -19774,7 +19775,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I214" s="3" t="str">
-        <f>IF(D214="",C214,D214)</f>
+        <f t="shared" si="6"/>
         <v>SWZ</v>
       </c>
       <c r="J214" s="3" t="str">
@@ -19782,7 +19783,7 @@
         <v/>
       </c>
       <c r="K214" t="str">
-        <f>IF(F214="",E214,F214)</f>
+        <f t="shared" si="7"/>
         <v>Eswatini</v>
       </c>
       <c r="L214" t="s">
@@ -19850,7 +19851,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I215" s="3" t="str">
-        <f>IF(D215="",C215,D215)</f>
+        <f t="shared" si="6"/>
         <v>SXM</v>
       </c>
       <c r="J215" s="3" t="str">
@@ -19858,7 +19859,7 @@
         <v/>
       </c>
       <c r="K215" t="str">
-        <f>IF(F215="",E215,F215)</f>
+        <f t="shared" si="7"/>
         <v>Sint Maarten (Dutch part)</v>
       </c>
       <c r="L215" t="s">
@@ -19926,7 +19927,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I216" s="3" t="str">
-        <f>IF(D216="",C216,D216)</f>
+        <f t="shared" si="6"/>
         <v>SYC</v>
       </c>
       <c r="J216" s="3" t="str">
@@ -19934,7 +19935,7 @@
         <v/>
       </c>
       <c r="K216" t="str">
-        <f>IF(F216="",E216,F216)</f>
+        <f t="shared" si="7"/>
         <v>Seychelles</v>
       </c>
       <c r="L216" t="s">
@@ -20002,7 +20003,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I217" s="3" t="str">
-        <f>IF(D217="",C217,D217)</f>
+        <f t="shared" si="6"/>
         <v>SYR</v>
       </c>
       <c r="J217" s="3" t="str">
@@ -20010,7 +20011,7 @@
         <v/>
       </c>
       <c r="K217" t="str">
-        <f>IF(F217="",E217,F217)</f>
+        <f t="shared" si="7"/>
         <v>Syrian Arab Republic</v>
       </c>
       <c r="L217" t="s">
@@ -20078,7 +20079,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I218" s="3" t="str">
-        <f>IF(D218="",C218,D218)</f>
+        <f t="shared" si="6"/>
         <v>TAJ</v>
       </c>
       <c r="J218" s="3" t="str">
@@ -20086,7 +20087,7 @@
         <v/>
       </c>
       <c r="K218" t="str">
-        <f>IF(F218="",E218,F218)</f>
+        <f t="shared" si="7"/>
         <v>Tajikistan</v>
       </c>
       <c r="L218" t="s">
@@ -20154,7 +20155,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I219" s="3" t="str">
-        <f>IF(D219="",C219,D219)</f>
+        <f t="shared" si="6"/>
         <v>TCA</v>
       </c>
       <c r="J219" s="3" t="str">
@@ -20162,7 +20163,7 @@
         <v/>
       </c>
       <c r="K219" t="str">
-        <f>IF(F219="",E219,F219)</f>
+        <f t="shared" si="7"/>
         <v>Turks and Caicos Islands</v>
       </c>
       <c r="L219" t="s">
@@ -20230,7 +20231,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I220" s="3" t="str">
-        <f>IF(D220="",C220,D220)</f>
+        <f t="shared" si="6"/>
         <v>TCD</v>
       </c>
       <c r="J220" s="3" t="str">
@@ -20238,7 +20239,7 @@
         <v/>
       </c>
       <c r="K220" t="str">
-        <f>IF(F220="",E220,F220)</f>
+        <f t="shared" si="7"/>
         <v>Chad</v>
       </c>
       <c r="L220" t="s">
@@ -20306,7 +20307,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I221" s="3" t="str">
-        <f>IF(D221="",C221,D221)</f>
+        <f t="shared" si="6"/>
         <v>TGO</v>
       </c>
       <c r="J221" s="3" t="str">
@@ -20314,7 +20315,7 @@
         <v/>
       </c>
       <c r="K221" t="str">
-        <f>IF(F221="",E221,F221)</f>
+        <f t="shared" si="7"/>
         <v>Togo</v>
       </c>
       <c r="L221" t="s">
@@ -20382,7 +20383,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I222" s="3" t="str">
-        <f>IF(D222="",C222,D222)</f>
+        <f t="shared" si="6"/>
         <v>TIM</v>
       </c>
       <c r="J222" s="3" t="str">
@@ -20390,7 +20391,7 @@
         <v/>
       </c>
       <c r="K222" t="str">
-        <f>IF(F222="",E222,F222)</f>
+        <f t="shared" si="7"/>
         <v>Timor-Leste</v>
       </c>
       <c r="L222" t="s">
@@ -20458,7 +20459,7 @@
         <v/>
       </c>
       <c r="I223" s="3" t="str">
-        <f>IF(D223="",C223,D223)</f>
+        <f t="shared" si="6"/>
         <v>TKL</v>
       </c>
       <c r="J223" s="3" t="str">
@@ -20466,7 +20467,7 @@
         <v/>
       </c>
       <c r="K223" t="str">
-        <f>IF(F223="",E223,F223)</f>
+        <f t="shared" si="7"/>
         <v>Tokelau</v>
       </c>
       <c r="L223" t="s">
@@ -20534,7 +20535,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I224" s="3" t="str">
-        <f>IF(D224="",C224,D224)</f>
+        <f t="shared" si="6"/>
         <v>TKM</v>
       </c>
       <c r="J224" s="3" t="str">
@@ -20542,7 +20543,7 @@
         <v/>
       </c>
       <c r="K224" t="str">
-        <f>IF(F224="",E224,F224)</f>
+        <f t="shared" si="7"/>
         <v>Turkmenistan</v>
       </c>
       <c r="L224" t="s">
@@ -20610,7 +20611,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I225" s="3" t="str">
-        <f>IF(D225="",C225,D225)</f>
+        <f t="shared" si="6"/>
         <v>TON</v>
       </c>
       <c r="J225" s="3" t="str">
@@ -20618,7 +20619,7 @@
         <v/>
       </c>
       <c r="K225" t="str">
-        <f>IF(F225="",E225,F225)</f>
+        <f t="shared" si="7"/>
         <v>Tonga</v>
       </c>
       <c r="L225" t="s">
@@ -20686,7 +20687,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I226" s="3" t="str">
-        <f>IF(D226="",C226,D226)</f>
+        <f t="shared" si="6"/>
         <v>TTO</v>
       </c>
       <c r="J226" s="3" t="str">
@@ -20694,7 +20695,7 @@
         <v/>
       </c>
       <c r="K226" t="str">
-        <f>IF(F226="",E226,F226)</f>
+        <f t="shared" si="7"/>
         <v>Trinidad and Tobago</v>
       </c>
       <c r="L226" t="s">
@@ -20762,7 +20763,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I227" s="3" t="str">
-        <f>IF(D227="",C227,D227)</f>
+        <f t="shared" si="6"/>
         <v>TUN</v>
       </c>
       <c r="J227" s="3" t="str">
@@ -20770,7 +20771,7 @@
         <v/>
       </c>
       <c r="K227" t="str">
-        <f>IF(F227="",E227,F227)</f>
+        <f t="shared" si="7"/>
         <v>Tunisia</v>
       </c>
       <c r="L227" t="s">
@@ -20838,7 +20839,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I228" s="3" t="str">
-        <f>IF(D228="",C228,D228)</f>
+        <f t="shared" si="6"/>
         <v>TUV</v>
       </c>
       <c r="J228" s="3" t="str">
@@ -20846,7 +20847,7 @@
         <v/>
       </c>
       <c r="K228" t="str">
-        <f>IF(F228="",E228,F228)</f>
+        <f t="shared" si="7"/>
         <v>Tuvalu</v>
       </c>
       <c r="L228" t="s">
@@ -20914,7 +20915,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I229" s="3" t="str">
-        <f>IF(D229="",C229,D229)</f>
+        <f t="shared" si="6"/>
         <v>TZA</v>
       </c>
       <c r="J229" s="3" t="str">
@@ -20922,7 +20923,7 @@
         <v/>
       </c>
       <c r="K229" t="str">
-        <f>IF(F229="",E229,F229)</f>
+        <f t="shared" si="7"/>
         <v>Tanzania, United Republic of</v>
       </c>
       <c r="L229" t="s">
@@ -20990,7 +20991,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I230" s="3" t="str">
-        <f>IF(D230="",C230,D230)</f>
+        <f t="shared" si="6"/>
         <v>UGA</v>
       </c>
       <c r="J230" s="3" t="str">
@@ -20998,7 +20999,7 @@
         <v/>
       </c>
       <c r="K230" t="str">
-        <f>IF(F230="",E230,F230)</f>
+        <f t="shared" si="7"/>
         <v>Uganda</v>
       </c>
       <c r="L230" t="s">
@@ -21066,7 +21067,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I231" s="3" t="str">
-        <f>IF(D231="",C231,D231)</f>
+        <f t="shared" si="6"/>
         <v>UKR</v>
       </c>
       <c r="J231" s="3" t="str">
@@ -21074,7 +21075,7 @@
         <v/>
       </c>
       <c r="K231" t="str">
-        <f>IF(F231="",E231,F231)</f>
+        <f t="shared" si="7"/>
         <v>Ukraine</v>
       </c>
       <c r="L231" t="s">
@@ -21142,7 +21143,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I232" s="3" t="str">
-        <f>IF(D232="",C232,D232)</f>
+        <f t="shared" si="6"/>
         <v>URY</v>
       </c>
       <c r="J232" s="3" t="str">
@@ -21150,7 +21151,7 @@
         <v/>
       </c>
       <c r="K232" t="str">
-        <f>IF(F232="",E232,F232)</f>
+        <f t="shared" si="7"/>
         <v>Uruguay</v>
       </c>
       <c r="L232" t="s">
@@ -21218,7 +21219,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I233" s="3" t="str">
-        <f>IF(D233="",C233,D233)</f>
+        <f t="shared" si="6"/>
         <v>UZB</v>
       </c>
       <c r="J233" s="3" t="str">
@@ -21226,7 +21227,7 @@
         <v/>
       </c>
       <c r="K233" t="str">
-        <f>IF(F233="",E233,F233)</f>
+        <f t="shared" si="7"/>
         <v>Uzbekistan</v>
       </c>
       <c r="L233" t="s">
@@ -21294,7 +21295,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I234" s="3" t="str">
-        <f>IF(D234="",C234,D234)</f>
+        <f t="shared" si="6"/>
         <v>VAN</v>
       </c>
       <c r="J234" s="3" t="str">
@@ -21302,7 +21303,7 @@
         <v/>
       </c>
       <c r="K234" t="str">
-        <f>IF(F234="",E234,F234)</f>
+        <f t="shared" si="7"/>
         <v>Vanuatu</v>
       </c>
       <c r="L234" t="s">
@@ -21370,7 +21371,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I235" s="3" t="str">
-        <f>IF(D235="",C235,D235)</f>
+        <f t="shared" si="6"/>
         <v>VCT</v>
       </c>
       <c r="J235" s="3" t="str">
@@ -21378,7 +21379,7 @@
         <v/>
       </c>
       <c r="K235" t="str">
-        <f>IF(F235="",E235,F235)</f>
+        <f t="shared" si="7"/>
         <v>Saint Vincent and the Grenadines</v>
       </c>
       <c r="L235" t="s">
@@ -21446,7 +21447,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I236" s="3" t="str">
-        <f>IF(D236="",C236,D236)</f>
+        <f t="shared" si="6"/>
         <v>VEN</v>
       </c>
       <c r="J236" s="3" t="str">
@@ -21454,7 +21455,7 @@
         <v/>
       </c>
       <c r="K236" t="str">
-        <f>IF(F236="",E236,F236)</f>
+        <f t="shared" si="7"/>
         <v>Venezuela (Bolivarian Republic of)</v>
       </c>
       <c r="L236" t="s">
@@ -21522,7 +21523,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I237" s="3" t="str">
-        <f>IF(D237="",C237,D237)</f>
+        <f t="shared" si="6"/>
         <v>VGB</v>
       </c>
       <c r="J237" s="3" t="str">
@@ -21530,7 +21531,7 @@
         <v/>
       </c>
       <c r="K237" t="str">
-        <f>IF(F237="",E237,F237)</f>
+        <f t="shared" si="7"/>
         <v>Virgin Islands (British)</v>
       </c>
       <c r="L237" t="s">
@@ -21598,7 +21599,7 @@
         <v/>
       </c>
       <c r="I238" s="3" t="str">
-        <f>IF(D238="",C238,D238)</f>
+        <f t="shared" si="6"/>
         <v>WLF</v>
       </c>
       <c r="J238" s="3" t="str">
@@ -21606,7 +21607,7 @@
         <v/>
       </c>
       <c r="K238" t="str">
-        <f>IF(F238="",E238,F238)</f>
+        <f t="shared" si="7"/>
         <v>Wallis and Futuna</v>
       </c>
       <c r="L238" t="s">
@@ -21674,7 +21675,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I239" s="3" t="str">
-        <f>IF(D239="",C239,D239)</f>
+        <f t="shared" si="6"/>
         <v>YEM</v>
       </c>
       <c r="J239" s="3" t="str">
@@ -21682,7 +21683,7 @@
         <v/>
       </c>
       <c r="K239" t="str">
-        <f>IF(F239="",E239,F239)</f>
+        <f t="shared" si="7"/>
         <v>Yemen</v>
       </c>
       <c r="L239" t="s">
@@ -21750,7 +21751,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I240" s="3" t="str">
-        <f>IF(D240="",C240,D240)</f>
+        <f t="shared" si="6"/>
         <v>ZAF</v>
       </c>
       <c r="J240" s="3" t="str">
@@ -21758,7 +21759,7 @@
         <v/>
       </c>
       <c r="K240" t="str">
-        <f>IF(F240="",E240,F240)</f>
+        <f t="shared" si="7"/>
         <v>South Africa</v>
       </c>
       <c r="L240" t="s">
@@ -21826,7 +21827,7 @@
         <v/>
       </c>
       <c r="I241" s="3" t="str">
-        <f>IF(D241="",C241,D241)</f>
+        <f t="shared" si="6"/>
         <v>ZAF</v>
       </c>
       <c r="J241" s="3" t="str">
@@ -21834,7 +21835,7 @@
         <v/>
       </c>
       <c r="K241" t="str">
-        <f>IF(F241="",E241,F241)</f>
+        <f t="shared" si="7"/>
         <v>Southern African Customs Union</v>
       </c>
       <c r="L241" t="s">
@@ -21902,7 +21903,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I242" s="3" t="str">
-        <f>IF(D242="",C242,D242)</f>
+        <f t="shared" si="6"/>
         <v>ZWE</v>
       </c>
       <c r="J242" s="3" t="str">
@@ -21910,7 +21911,7 @@
         <v/>
       </c>
       <c r="K242" t="str">
-        <f>IF(F242="",E242,F242)</f>
+        <f t="shared" si="7"/>
         <v>Zimbabwe</v>
       </c>
       <c r="L242" t="s">
@@ -27256,17 +27257,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB6046C-6347-F140-9E7C-C1169835F1DF}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F92" sqref="F92"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.83203125" style="3"/>
-    <col min="4" max="4" width="30.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -27280,7 +27281,7 @@
       <c r="C1" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>601</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -27307,7 +27308,7 @@
       <c r="C2" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="3">
@@ -27328,7 +27329,7 @@
       <c r="C3" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="3">
@@ -27346,7 +27347,7 @@
       <c r="C4" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" t="s">
         <v>55</v>
       </c>
       <c r="F4" s="3">
@@ -27361,7 +27362,7 @@
         <f>VLOOKUP($A5,ISO!$A:$D,3,FALSE)</f>
         <v>BGR</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" t="s">
         <v>61</v>
       </c>
       <c r="F5" s="3">
@@ -27376,7 +27377,7 @@
         <f>VLOOKUP($A6,ISO!$A:$D,3,FALSE)</f>
         <v>BRA</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" t="s">
         <v>117</v>
       </c>
       <c r="F6" s="3">
@@ -27394,7 +27395,7 @@
       <c r="C7" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" t="s">
         <v>162</v>
       </c>
       <c r="F7" s="3">
@@ -27412,7 +27413,7 @@
       <c r="C8" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" t="s">
         <v>72</v>
       </c>
       <c r="F8" s="3">
@@ -27430,7 +27431,7 @@
       <c r="C9" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" t="s">
         <v>72</v>
       </c>
       <c r="F9" s="3">
@@ -27448,7 +27449,7 @@
       <c r="C10" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" t="s">
         <v>266</v>
       </c>
       <c r="E10" t="s">
@@ -27472,7 +27473,7 @@
         <f>VLOOKUP($A11,ISO!$A:$D,3,FALSE)</f>
         <v>CYP</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="3">
@@ -27487,7 +27488,7 @@
         <f>VLOOKUP($A12,ISO!$A:$D,3,FALSE)</f>
         <v>CZE</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" t="s">
         <v>73</v>
       </c>
       <c r="F12" s="3">
@@ -27505,7 +27506,7 @@
       <c r="C13" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" t="s">
         <v>93</v>
       </c>
       <c r="F13" s="3">
@@ -27523,7 +27524,7 @@
       <c r="C14" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" t="s">
         <v>76</v>
       </c>
       <c r="F14" s="3">
@@ -27541,7 +27542,7 @@
       <c r="C15" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" t="s">
         <v>66</v>
       </c>
       <c r="F15" s="3">
@@ -27556,7 +27557,7 @@
         <f>VLOOKUP($A16,ISO!$A:$D,3,FALSE)</f>
         <v>EST</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" t="s">
         <v>79</v>
       </c>
       <c r="F16" s="3">
@@ -27574,7 +27575,7 @@
       <c r="C17" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" t="s">
         <v>85</v>
       </c>
       <c r="F17" s="3">
@@ -27592,7 +27593,7 @@
       <c r="C18" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" t="s">
         <v>88</v>
       </c>
       <c r="F18" s="3">
@@ -27610,7 +27611,7 @@
       <c r="C19" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" t="s">
         <v>88</v>
       </c>
       <c r="F19" s="3">
@@ -27628,7 +27629,7 @@
       <c r="C20" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" t="s">
         <v>87</v>
       </c>
       <c r="E20" t="s">
@@ -27646,7 +27647,7 @@
         <f>VLOOKUP($A21,ISO!$A:$D,3,FALSE)</f>
         <v>GRC</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="3">
@@ -27661,7 +27662,7 @@
         <f>VLOOKUP($A22,ISO!$A:$D,3,FALSE)</f>
         <v>HRV</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" t="s">
         <v>67</v>
       </c>
       <c r="F22" s="3">
@@ -27676,7 +27677,7 @@
         <f>VLOOKUP($A23,ISO!$A:$D,3,FALSE)</f>
         <v>HUN</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="3">
@@ -27694,7 +27695,7 @@
       <c r="C24" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="3">
@@ -27718,7 +27719,7 @@
       <c r="C25" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" t="s">
         <v>166</v>
       </c>
       <c r="F25" s="3">
@@ -27742,7 +27743,7 @@
       <c r="C26" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" t="s">
         <v>166</v>
       </c>
       <c r="F26" s="3">
@@ -27766,7 +27767,7 @@
       <c r="C27" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" t="s">
         <v>53</v>
       </c>
       <c r="F27" s="3">
@@ -27784,7 +27785,7 @@
       <c r="C28" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" t="s">
         <v>59</v>
       </c>
       <c r="F28" s="3">
@@ -27802,7 +27803,7 @@
       <c r="C29" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" t="s">
         <v>59</v>
       </c>
       <c r="F29" s="3">
@@ -27820,7 +27821,7 @@
       <c r="C30" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="F30" s="3">
@@ -27844,7 +27845,7 @@
       <c r="C31" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" t="s">
         <v>416</v>
       </c>
       <c r="E31" t="s">
@@ -27868,7 +27869,7 @@
         <f>VLOOKUP($A32,ISO!$A:$D,3,FALSE)</f>
         <v>LTU</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" t="s">
         <v>77</v>
       </c>
       <c r="F32" s="3">
@@ -27886,7 +27887,7 @@
       <c r="C33" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" t="s">
         <v>80</v>
       </c>
       <c r="F33" s="3">
@@ -27901,7 +27902,7 @@
         <f>VLOOKUP($A34,ISO!$A:$D,3,FALSE)</f>
         <v>LVA</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" t="s">
         <v>71</v>
       </c>
       <c r="F34" s="3">
@@ -27916,7 +27917,7 @@
         <f>VLOOKUP($A35,ISO!$A:$D,3,FALSE)</f>
         <v>MEX</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" t="s">
         <v>130</v>
       </c>
       <c r="F35" s="3">
@@ -27931,7 +27932,7 @@
         <f>VLOOKUP($A36,ISO!$A:$D,3,FALSE)</f>
         <v>MLT</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" t="s">
         <v>153</v>
       </c>
       <c r="F36" s="3">
@@ -27949,7 +27950,7 @@
       <c r="C37" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" t="s">
         <v>92</v>
       </c>
       <c r="F37" s="3">
@@ -27967,7 +27968,7 @@
       <c r="C38" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" t="s">
         <v>39</v>
       </c>
       <c r="F38" s="3">
@@ -27985,7 +27986,7 @@
       <c r="C39" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" t="s">
         <v>39</v>
       </c>
       <c r="F39" s="3">
@@ -28000,7 +28001,7 @@
         <f>VLOOKUP($A40,ISO!$A:$D,3,FALSE)</f>
         <v>POL</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" t="s">
         <v>42</v>
       </c>
       <c r="F40" s="3">
@@ -28018,7 +28019,7 @@
       <c r="C41" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" t="s">
         <v>45</v>
       </c>
       <c r="F41" s="3">
@@ -28033,7 +28034,7 @@
         <f>VLOOKUP($A42,ISO!$A:$D,3,FALSE)</f>
         <v>ROU</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" t="s">
         <v>48</v>
       </c>
       <c r="F42" s="3">
@@ -28048,7 +28049,7 @@
         <f>VLOOKUP($A43,ISO!$A:$D,3,FALSE)</f>
         <v>RUS</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" t="s">
         <v>51</v>
       </c>
       <c r="F43" s="3">
@@ -28063,7 +28064,7 @@
         <f>VLOOKUP($A44,ISO!$A:$D,3,FALSE)</f>
         <v>SVK</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" t="s">
         <v>60</v>
       </c>
       <c r="F44" s="3">
@@ -28078,7 +28079,7 @@
         <f>VLOOKUP($A45,ISO!$A:$D,3,FALSE)</f>
         <v>SVN</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" t="s">
         <v>63</v>
       </c>
       <c r="F45" s="3">
@@ -28096,7 +28097,7 @@
       <c r="C46" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" t="s">
         <v>69</v>
       </c>
       <c r="F46" s="3">
@@ -28114,7 +28115,7 @@
       <c r="C47" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" t="s">
         <v>78</v>
       </c>
       <c r="F47" s="3">
@@ -28132,7 +28133,7 @@
       <c r="C48" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" t="s">
         <v>401</v>
       </c>
       <c r="F48" s="3">
@@ -28156,7 +28157,7 @@
       <c r="C49" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" t="s">
         <v>163</v>
       </c>
       <c r="E49" t="s">
@@ -28177,7 +28178,7 @@
       <c r="C50" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" t="s">
         <v>163</v>
       </c>
       <c r="E50" t="s">
@@ -28198,7 +28199,7 @@
       <c r="C51" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" t="s">
         <v>168</v>
       </c>
       <c r="F51" s="3">
@@ -28222,7 +28223,7 @@
       <c r="C52" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" t="s">
         <v>10</v>
       </c>
       <c r="F52" s="3">
@@ -28246,7 +28247,7 @@
       <c r="C53" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="3">
@@ -28270,7 +28271,7 @@
       <c r="C54" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" t="s">
         <v>16</v>
       </c>
       <c r="F54" s="3">
@@ -28294,7 +28295,7 @@
       <c r="C55" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" t="s">
         <v>486</v>
       </c>
       <c r="F55" s="3">
@@ -28318,7 +28319,7 @@
       <c r="C56" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" t="s">
         <v>62</v>
       </c>
       <c r="F56" s="3">
@@ -28342,7 +28343,7 @@
       <c r="C57" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" t="s">
         <v>18</v>
       </c>
       <c r="F57" s="3">
@@ -28366,7 +28367,7 @@
       <c r="C58" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" t="s">
         <v>170</v>
       </c>
       <c r="F58" s="3">
@@ -28390,7 +28391,7 @@
       <c r="C59" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" t="s">
         <v>167</v>
       </c>
       <c r="F59" s="3">
@@ -28414,7 +28415,7 @@
       <c r="C60" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="3">
@@ -28438,7 +28439,7 @@
       <c r="C61" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" t="s">
         <v>354</v>
       </c>
       <c r="E61" t="s">
@@ -28465,7 +28466,7 @@
       <c r="C62" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" t="s">
         <v>6</v>
       </c>
       <c r="F62" s="3">
@@ -28489,7 +28490,7 @@
       <c r="C63" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" t="s">
         <v>171</v>
       </c>
       <c r="F63" s="3">
@@ -28513,7 +28514,7 @@
       <c r="C64" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" t="s">
         <v>68</v>
       </c>
       <c r="F64" s="3">
@@ -28537,7 +28538,7 @@
       <c r="C65" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="3">
@@ -28561,7 +28562,7 @@
       <c r="C66" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" t="s">
         <v>169</v>
       </c>
       <c r="F66" s="3">
@@ -28585,7 +28586,7 @@
       <c r="C67" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" t="s">
         <v>172</v>
       </c>
       <c r="F67" s="3">
@@ -28609,7 +28610,7 @@
       <c r="C68" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" t="s">
         <v>8</v>
       </c>
       <c r="F68" s="3">
@@ -28633,7 +28634,7 @@
       <c r="C69" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" t="s">
         <v>268</v>
       </c>
       <c r="F69" s="3">
@@ -28653,7 +28654,7 @@
       <c r="B70" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" t="s">
         <v>99</v>
       </c>
       <c r="F70" s="3">
@@ -28670,7 +28671,7 @@
       <c r="C71" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" t="s">
         <v>129</v>
       </c>
       <c r="F71" s="3">
@@ -28687,7 +28688,7 @@
       <c r="C72" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" t="s">
         <v>106</v>
       </c>
       <c r="F72" s="3">
@@ -28704,7 +28705,7 @@
       <c r="C73" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" t="s">
         <v>43</v>
       </c>
       <c r="F73" s="3">
@@ -28721,7 +28722,7 @@
       <c r="C74" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" t="s">
         <v>91</v>
       </c>
       <c r="F74" s="3">
@@ -28738,7 +28739,7 @@
       <c r="C75" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" t="s">
         <v>297</v>
       </c>
       <c r="F75" s="3">
@@ -28755,7 +28756,7 @@
       <c r="C76" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" t="s">
         <v>144</v>
       </c>
       <c r="F76" s="3">
@@ -28772,7 +28773,7 @@
       <c r="C77" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" t="s">
         <v>145</v>
       </c>
       <c r="F77" s="3">
@@ -28789,7 +28790,7 @@
       <c r="C78" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" t="s">
         <v>154</v>
       </c>
       <c r="E78" t="s">
@@ -28809,7 +28810,7 @@
       <c r="C79" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" t="s">
         <v>30</v>
       </c>
       <c r="F79" s="3">
@@ -28824,7 +28825,7 @@
         <f>VLOOKUP($A80,ISO!$A:$D,3,FALSE)</f>
         <v>ROW</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" t="s">
         <v>651</v>
       </c>
       <c r="F80" s="3">
@@ -28842,7 +28843,7 @@
       <c r="C81" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" t="s">
         <v>165</v>
       </c>
     </row>
@@ -28857,7 +28858,7 @@
       <c r="C82" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" t="s">
         <v>43</v>
       </c>
     </row>
@@ -28872,7 +28873,7 @@
       <c r="C83" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" t="s">
         <v>49</v>
       </c>
     </row>
@@ -28887,7 +28888,7 @@
       <c r="C84" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" t="s">
         <v>277</v>
       </c>
     </row>
@@ -28902,7 +28903,7 @@
       <c r="C85" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" t="s">
         <v>609</v>
       </c>
       <c r="E85" t="s">
@@ -28920,7 +28921,7 @@
       <c r="C86" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" t="s">
         <v>91</v>
       </c>
     </row>
@@ -28935,7 +28936,7 @@
       <c r="C87" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" t="s">
         <v>32</v>
       </c>
     </row>
@@ -28950,7 +28951,7 @@
       <c r="C88" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" t="s">
         <v>13</v>
       </c>
       <c r="E88" t="s">
@@ -28968,7 +28969,7 @@
       <c r="C89" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" t="s">
         <v>21</v>
       </c>
     </row>
@@ -28983,7 +28984,7 @@
       <c r="C90" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" t="s">
         <v>24</v>
       </c>
     </row>
@@ -28998,7 +28999,7 @@
       <c r="C91" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" t="s">
         <v>30</v>
       </c>
     </row>
@@ -29013,7 +29014,7 @@
       <c r="C92" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" t="s">
         <v>35</v>
       </c>
     </row>
@@ -29028,7 +29029,7 @@
       <c r="C93" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" t="s">
         <v>22</v>
       </c>
       <c r="E93" t="s">
@@ -29046,7 +29047,7 @@
       <c r="C94" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" t="s">
         <v>5</v>
       </c>
     </row>
@@ -29061,7 +29062,7 @@
       <c r="C95" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" t="s">
         <v>11</v>
       </c>
     </row>
@@ -29076,7 +29077,7 @@
       <c r="C96" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" t="s">
         <v>75</v>
       </c>
     </row>
@@ -29091,7 +29092,7 @@
       <c r="C97" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" t="s">
         <v>19</v>
       </c>
     </row>
@@ -29106,7 +29107,7 @@
       <c r="C98" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" t="s">
         <v>25</v>
       </c>
     </row>
@@ -29121,7 +29122,7 @@
       <c r="C99" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" t="s">
         <v>81</v>
       </c>
     </row>
@@ -29136,7 +29137,7 @@
       <c r="C100" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" t="s">
         <v>28</v>
       </c>
     </row>
@@ -29151,7 +29152,7 @@
       <c r="C101" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" t="s">
         <v>90</v>
       </c>
     </row>
@@ -29166,7 +29167,7 @@
       <c r="C102" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" t="s">
         <v>31</v>
       </c>
     </row>
